--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_3_27.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_3_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1669914.068983709</v>
+        <v>1664625.953488937</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2220068.8925167</v>
+        <v>2280223.653892728</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.0933791244</v>
+        <v>419463.0933791246</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9240733.684110062</v>
+        <v>9238963.745938808</v>
       </c>
     </row>
     <row r="11">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -668,16 +668,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>12.725494085322</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>9.031127956876844</v>
+        <v>36.77958032339793</v>
       </c>
       <c r="H2" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>200.6525230604415</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -747,13 +747,13 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F3" t="n">
-        <v>123.1874880556995</v>
+        <v>96.52485201226706</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>69.98930104614885</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -832,10 +832,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>131.7634811092929</v>
+        <v>23.07869429520999</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,19 +865,19 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
-        <v>220.7637744775903</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -896,22 +896,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>222.2881035659891</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>12.725494085322</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>9.031127956876844</v>
+        <v>37.77784893772647</v>
       </c>
       <c r="H5" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>136.9537457384598</v>
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -1026,7 +1026,7 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>147.2954742968088</v>
+        <v>50.64353720722755</v>
       </c>
       <c r="U6" t="n">
         <v>207.9625118881446</v>
@@ -1060,22 +1060,22 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
         <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>22.96189723698667</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>61.39345098864458</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,22 +1130,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>211.8549840050685</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>9.031127956876844</v>
+        <v>394.6823511849425</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="9">
@@ -1294,22 +1294,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>130.417892858628</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1345,16 +1345,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>116.876383545772</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1373,7 +1373,7 @@
         <v>318.1654340873667</v>
       </c>
       <c r="D11" t="n">
-        <v>167.2186022584434</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>327.479377239889</v>
@@ -1382,13 +1382,13 @@
         <v>341.6471816905901</v>
       </c>
       <c r="G11" t="n">
-        <v>337.9528155621449</v>
+        <v>271.5098165019617</v>
       </c>
       <c r="H11" t="n">
         <v>249.7639075344423</v>
       </c>
       <c r="I11" t="n">
-        <v>65.87543334372791</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,13 +1421,13 @@
         <v>93.77010711362803</v>
       </c>
       <c r="T11" t="n">
-        <v>150.1872840214456</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>182.1168898750155</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>267.6074288087849</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1531,7 +1531,7 @@
         <v>97.42475435993876</v>
       </c>
       <c r="D13" t="n">
-        <v>82.99846957177849</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>82.9249116246576</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>51.58366707901689</v>
       </c>
       <c r="S13" t="n">
         <v>129.7096105845442</v>
       </c>
       <c r="T13" t="n">
-        <v>162.2835489187163</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>211.5060914457862</v>
       </c>
       <c r="V13" t="n">
         <v>192.2412393326521</v>
       </c>
       <c r="W13" t="n">
-        <v>76.0478260080375</v>
+        <v>209.4187856534022</v>
       </c>
       <c r="X13" t="n">
-        <v>160.6612066001148</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>9.48250692044153</v>
       </c>
     </row>
     <row r="14">
@@ -1610,22 +1610,22 @@
         <v>318.1654340873667</v>
       </c>
       <c r="D14" t="n">
-        <v>153.5580307397524</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>327.479377239889</v>
+        <v>327.4793772398889</v>
       </c>
       <c r="F14" t="n">
-        <v>341.6471816905901</v>
+        <v>166.7589818844428</v>
       </c>
       <c r="G14" t="n">
-        <v>337.9528155621449</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>249.7639075344423</v>
       </c>
       <c r="I14" t="n">
-        <v>65.87543334372791</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>93.77010711362803</v>
+        <v>93.770107113628</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>150.1872840214455</v>
       </c>
       <c r="U14" t="n">
-        <v>182.1168898750155</v>
+        <v>182.1168898750154</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>267.6074288087848</v>
       </c>
       <c r="W14" t="n">
         <v>296.2107322866635</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>314.4797666215418</v>
       </c>
       <c r="Y14" t="n">
-        <v>321.447489593873</v>
+        <v>321.4474895938729</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>112.2776261096564</v>
+        <v>112.2776261096563</v>
       </c>
       <c r="C16" t="n">
-        <v>97.42475435993876</v>
+        <v>97.42475435993873</v>
       </c>
       <c r="D16" t="n">
-        <v>82.99846957177849</v>
+        <v>82.99846957177846</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>82.92491162465757</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>84.67436304442484</v>
       </c>
       <c r="G16" t="n">
-        <v>95.493200966817</v>
+        <v>95.49320096681697</v>
       </c>
       <c r="H16" t="n">
-        <v>82.84545313338904</v>
+        <v>82.84545313338901</v>
       </c>
       <c r="I16" t="n">
-        <v>60.68516871456097</v>
+        <v>60.68516871456094</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>51.58366707901686</v>
       </c>
       <c r="S16" t="n">
-        <v>129.7096105845442</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>162.2835489187163</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>211.5060914457862</v>
+        <v>211.5060914457861</v>
       </c>
       <c r="V16" t="n">
-        <v>192.2412393326521</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>42.99958765465728</v>
+        <v>209.4187856534022</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>98.63225908906884</v>
       </c>
       <c r="Y16" t="n">
-        <v>149.8026281767912</v>
+        <v>149.8026281767911</v>
       </c>
     </row>
     <row r="17">
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277472</v>
       </c>
       <c r="T20" t="n">
-        <v>90.90562710059334</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U20" t="n">
         <v>122.835232954163</v>
@@ -2573,7 +2573,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I26" t="n">
-        <v>42.96247126414335</v>
+        <v>42.96247126414333</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.85714503404347</v>
+        <v>70.85714503404346</v>
       </c>
       <c r="T26" t="n">
         <v>127.274321941861</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.36466403007179</v>
+        <v>89.36466403007178</v>
       </c>
       <c r="C28" t="n">
-        <v>74.5117922803542</v>
+        <v>74.51179228035419</v>
       </c>
       <c r="D28" t="n">
-        <v>60.08550749219393</v>
+        <v>60.08550749219391</v>
       </c>
       <c r="E28" t="n">
-        <v>60.01194954507304</v>
+        <v>60.01194954507302</v>
       </c>
       <c r="F28" t="n">
-        <v>61.76140096484031</v>
+        <v>61.76140096484029</v>
       </c>
       <c r="G28" t="n">
-        <v>72.58023888723244</v>
+        <v>72.58023888723243</v>
       </c>
       <c r="H28" t="n">
-        <v>59.93249105380448</v>
+        <v>59.93249105380447</v>
       </c>
       <c r="I28" t="n">
-        <v>37.77220663497641</v>
+        <v>37.7722066349764</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.67070499943233</v>
+        <v>28.67070499943232</v>
       </c>
       <c r="S28" t="n">
         <v>106.7966485049596</v>
@@ -2810,7 +2810,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I29" t="n">
-        <v>42.96247126414335</v>
+        <v>42.96247126414336</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.85714503404347</v>
+        <v>70.85714503404348</v>
       </c>
       <c r="T29" t="n">
         <v>127.274321941861</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>89.36466403007179</v>
+        <v>89.36466403007181</v>
       </c>
       <c r="C31" t="n">
-        <v>74.5117922803542</v>
+        <v>74.51179228035421</v>
       </c>
       <c r="D31" t="n">
-        <v>60.08550749219393</v>
+        <v>60.08550749219394</v>
       </c>
       <c r="E31" t="n">
-        <v>60.01194954507304</v>
+        <v>60.01194954507305</v>
       </c>
       <c r="F31" t="n">
-        <v>61.76140096484031</v>
+        <v>61.76140096484032</v>
       </c>
       <c r="G31" t="n">
-        <v>72.58023888723244</v>
+        <v>72.58023888723245</v>
       </c>
       <c r="H31" t="n">
-        <v>59.93249105380448</v>
+        <v>59.9324910538045</v>
       </c>
       <c r="I31" t="n">
-        <v>37.77220663497641</v>
+        <v>37.77220663497643</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>28.67070499943233</v>
+        <v>28.67070499943235</v>
       </c>
       <c r="S31" t="n">
-        <v>106.7966485049596</v>
+        <v>106.7966485049597</v>
       </c>
       <c r="T31" t="n">
-        <v>139.3705868391317</v>
+        <v>139.3705868391318</v>
       </c>
       <c r="U31" t="n">
         <v>188.5931293662016</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>290.153340954212</v>
+        <v>283.7098784815731</v>
       </c>
       <c r="C32" t="n">
-        <v>282.9072891820278</v>
+        <v>276.4638267093889</v>
       </c>
       <c r="D32" t="n">
-        <v>275.250260195428</v>
+        <v>268.8067977227892</v>
       </c>
       <c r="E32" t="n">
-        <v>292.22123233455</v>
+        <v>285.7777698619111</v>
       </c>
       <c r="F32" t="n">
-        <v>306.3890367852511</v>
+        <v>299.9455743126122</v>
       </c>
       <c r="G32" t="n">
-        <v>302.694670656806</v>
+        <v>296.251208184167</v>
       </c>
       <c r="H32" t="n">
-        <v>214.5057626291033</v>
+        <v>208.0623001564644</v>
       </c>
       <c r="I32" t="n">
-        <v>30.61728843838893</v>
+        <v>24.17382596575001</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.51196220828905</v>
+        <v>52.06849973565014</v>
       </c>
       <c r="T32" t="n">
-        <v>114.9291391161066</v>
+        <v>108.4856766434677</v>
       </c>
       <c r="U32" t="n">
-        <v>146.8587449696765</v>
+        <v>140.4152824970376</v>
       </c>
       <c r="V32" t="n">
-        <v>232.3492839034459</v>
+        <v>225.905821430807</v>
       </c>
       <c r="W32" t="n">
-        <v>260.9525873813245</v>
+        <v>254.5091249086856</v>
       </c>
       <c r="X32" t="n">
-        <v>279.2216217162028</v>
+        <v>272.7781592435639</v>
       </c>
       <c r="Y32" t="n">
-        <v>286.189344688534</v>
+        <v>279.7458822158951</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>77.01948120431737</v>
+        <v>70.57601873167846</v>
       </c>
       <c r="C34" t="n">
-        <v>62.16660945459978</v>
+        <v>55.72314698196087</v>
       </c>
       <c r="D34" t="n">
-        <v>47.74032466643951</v>
+        <v>41.29686219380059</v>
       </c>
       <c r="E34" t="n">
-        <v>47.66676671931862</v>
+        <v>41.2233042466797</v>
       </c>
       <c r="F34" t="n">
-        <v>49.41621813908588</v>
+        <v>42.97275566644697</v>
       </c>
       <c r="G34" t="n">
-        <v>60.23505606147802</v>
+        <v>53.79159358883911</v>
       </c>
       <c r="H34" t="n">
-        <v>47.58730822805006</v>
+        <v>41.14384575541115</v>
       </c>
       <c r="I34" t="n">
-        <v>25.42702380922199</v>
+        <v>18.98356133658308</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>16.32552217367791</v>
+        <v>9.882059701038997</v>
       </c>
       <c r="S34" t="n">
-        <v>94.45146567920523</v>
+        <v>88.00800320656631</v>
       </c>
       <c r="T34" t="n">
-        <v>127.0254040133773</v>
+        <v>120.5819415407384</v>
       </c>
       <c r="U34" t="n">
-        <v>176.2479465404472</v>
+        <v>169.8044840678083</v>
       </c>
       <c r="V34" t="n">
-        <v>156.9830944273131</v>
+        <v>150.5396319546742</v>
       </c>
       <c r="W34" t="n">
-        <v>174.1606407480633</v>
+        <v>167.7171782754243</v>
       </c>
       <c r="X34" t="n">
-        <v>125.4030616947758</v>
+        <v>118.9595992221369</v>
       </c>
       <c r="Y34" t="n">
-        <v>114.5444832714522</v>
+        <v>108.1010207988133</v>
       </c>
     </row>
     <row r="35">
@@ -3263,13 +3263,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C35" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D35" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E35" t="n">
         <v>268.1977203190365</v>
@@ -3281,10 +3281,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H35" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I35" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T35" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U35" t="n">
         <v>122.835232954163</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C37" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D37" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E37" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F37" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G37" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H37" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I37" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T37" t="n">
         <v>103.0018919978638</v>
@@ -3484,13 +3484,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W37" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X37" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y37" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="38">
@@ -3503,7 +3503,7 @@
         <v>266.1298289386986</v>
       </c>
       <c r="C38" t="n">
-        <v>258.8837771665144</v>
+        <v>258.8837771665143</v>
       </c>
       <c r="D38" t="n">
         <v>251.2267481799146</v>
@@ -3512,16 +3512,16 @@
         <v>268.1977203190365</v>
       </c>
       <c r="F38" t="n">
-        <v>282.3655247697377</v>
+        <v>282.3655247697376</v>
       </c>
       <c r="G38" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H38" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I38" t="n">
-        <v>6.593776422875493</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,22 +3551,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>34.48845019277562</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T38" t="n">
-        <v>90.90562710059316</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U38" t="n">
         <v>122.835232954163</v>
       </c>
       <c r="V38" t="n">
-        <v>208.3257718879325</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W38" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X38" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y38" t="n">
         <v>262.1658326730205</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.99596918880394</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C40" t="n">
-        <v>38.14309743908635</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D40" t="n">
-        <v>23.71681265092607</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E40" t="n">
-        <v>23.64325470380518</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F40" t="n">
-        <v>25.39270612357245</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G40" t="n">
-        <v>36.21154404596459</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H40" t="n">
-        <v>23.56379621253663</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I40" t="n">
-        <v>1.40351179370856</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>70.4279536636918</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T40" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U40" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V40" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W40" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X40" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y40" t="n">
-        <v>90.52097125593875</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="41">
@@ -3737,13 +3737,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C41" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D41" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E41" t="n">
         <v>268.1977203190365</v>
@@ -3755,10 +3755,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H41" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I41" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T41" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U41" t="n">
         <v>122.835232954163</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C43" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D43" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E43" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F43" t="n">
-        <v>25.39270612357237</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G43" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H43" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I43" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T43" t="n">
         <v>103.0018919978638</v>
@@ -3958,13 +3958,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W43" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X43" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y43" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="44">
@@ -3974,13 +3974,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C44" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D44" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E44" t="n">
         <v>268.1977203190365</v>
@@ -3992,10 +3992,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H44" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I44" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,10 +4025,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T44" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U44" t="n">
         <v>122.835232954163</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C46" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D46" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E46" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F46" t="n">
-        <v>25.39270612357237</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G46" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H46" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I46" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,7 +4183,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T46" t="n">
         <v>103.0018919978638</v>
@@ -4195,13 +4195,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W46" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X46" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y46" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>527.8922126370104</v>
+        <v>888.7242779591857</v>
       </c>
       <c r="C2" t="n">
-        <v>527.8922126370104</v>
+        <v>495.5487764621162</v>
       </c>
       <c r="D2" t="n">
-        <v>527.8922126370104</v>
+        <v>495.5487764621162</v>
       </c>
       <c r="E2" t="n">
-        <v>527.8922126370104</v>
+        <v>495.5487764621162</v>
       </c>
       <c r="F2" t="n">
-        <v>515.0381782073922</v>
+        <v>78.65433799209399</v>
       </c>
       <c r="G2" t="n">
-        <v>505.9158267357994</v>
+        <v>41.5032467563385</v>
       </c>
       <c r="H2" t="n">
-        <v>181.8327763022901</v>
+        <v>41.5032467563385</v>
       </c>
       <c r="I2" t="n">
-        <v>43.49565939475493</v>
+        <v>41.5032467563385</v>
       </c>
       <c r="J2" t="n">
-        <v>188.145432303583</v>
+        <v>186.1530196651666</v>
       </c>
       <c r="K2" t="n">
-        <v>547.1277883310449</v>
+        <v>545.1353756926285</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.448080049574</v>
+        <v>1038.455667411157</v>
       </c>
       <c r="M2" t="n">
-        <v>1040.448080049574</v>
+        <v>1102.089684652126</v>
       </c>
       <c r="N2" t="n">
-        <v>1568.259363687036</v>
+        <v>1102.089684652126</v>
       </c>
       <c r="O2" t="n">
-        <v>2008.298964579364</v>
+        <v>1542.129285544454</v>
       </c>
       <c r="P2" t="n">
-        <v>2174.782969737746</v>
+        <v>1890.316777675976</v>
       </c>
       <c r="Q2" t="n">
-        <v>2174.782969737746</v>
+        <v>2075.162337816925</v>
       </c>
       <c r="R2" t="n">
-        <v>2136.790056023268</v>
+        <v>2075.162337816925</v>
       </c>
       <c r="S2" t="n">
-        <v>1970.276500964319</v>
+        <v>2075.162337816925</v>
       </c>
       <c r="T2" t="n">
-        <v>1746.775898523736</v>
+        <v>2075.162337816925</v>
       </c>
       <c r="U2" t="n">
-        <v>1491.023168958334</v>
+        <v>2075.162337816925</v>
       </c>
       <c r="V2" t="n">
-        <v>1491.023168958334</v>
+        <v>2075.162337816925</v>
       </c>
       <c r="W2" t="n">
-        <v>1120.024133926622</v>
+        <v>2075.162337816925</v>
       </c>
       <c r="X2" t="n">
-        <v>730.5715288596786</v>
+        <v>1685.709732749981</v>
       </c>
       <c r="Y2" t="n">
-        <v>527.8922126370104</v>
+        <v>1289.219023670583</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>655.8134179021415</v>
+        <v>556.1927859813197</v>
       </c>
       <c r="C3" t="n">
-        <v>505.1591874622337</v>
+        <v>405.5385555414119</v>
       </c>
       <c r="D3" t="n">
-        <v>375.070220083714</v>
+        <v>275.4495881628923</v>
       </c>
       <c r="E3" t="n">
-        <v>238.6237291946018</v>
+        <v>139.00309727378</v>
       </c>
       <c r="F3" t="n">
-        <v>114.1919230777336</v>
+        <v>41.5032467563385</v>
       </c>
       <c r="G3" t="n">
-        <v>114.1919230777336</v>
+        <v>41.5032467563385</v>
       </c>
       <c r="H3" t="n">
-        <v>43.49565939475493</v>
+        <v>41.5032467563385</v>
       </c>
       <c r="I3" t="n">
-        <v>43.49565939475493</v>
+        <v>41.5032467563385</v>
       </c>
       <c r="J3" t="n">
-        <v>43.49565939475493</v>
+        <v>41.5032467563385</v>
       </c>
       <c r="K3" t="n">
-        <v>43.49565939475493</v>
+        <v>41.5032467563385</v>
       </c>
       <c r="L3" t="n">
-        <v>527.0617452930682</v>
+        <v>525.0693326546517</v>
       </c>
       <c r="M3" t="n">
-        <v>1065.32053030316</v>
+        <v>642.3356118811496</v>
       </c>
       <c r="N3" t="n">
-        <v>1252.641318430368</v>
+        <v>1155.938290490838</v>
       </c>
       <c r="O3" t="n">
-        <v>1769.161601021349</v>
+        <v>1669.540969100527</v>
       </c>
       <c r="P3" t="n">
-        <v>2174.782969737746</v>
+        <v>2075.162337816925</v>
       </c>
       <c r="Q3" t="n">
-        <v>2174.782969737746</v>
+        <v>2075.162337816925</v>
       </c>
       <c r="R3" t="n">
-        <v>2150.865926635811</v>
+        <v>2051.245294714989</v>
       </c>
       <c r="S3" t="n">
-        <v>2015.93524953568</v>
+        <v>1916.314617614858</v>
       </c>
       <c r="T3" t="n">
-        <v>1838.951437734588</v>
+        <v>1739.330805813766</v>
       </c>
       <c r="U3" t="n">
-        <v>1628.88829441323</v>
+        <v>1529.267662492408</v>
       </c>
       <c r="V3" t="n">
-        <v>1406.348292784297</v>
+        <v>1306.727660863475</v>
       </c>
       <c r="W3" t="n">
-        <v>1176.231046917584</v>
+        <v>1076.610414996762</v>
       </c>
       <c r="X3" t="n">
-        <v>986.9239692675956</v>
+        <v>887.3033373467738</v>
       </c>
       <c r="Y3" t="n">
-        <v>807.6097523431029</v>
+        <v>707.9891204222811</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>332.0686357961831</v>
+        <v>64.81505917574253</v>
       </c>
       <c r="C4" t="n">
-        <v>332.0686357961831</v>
+        <v>64.81505917574253</v>
       </c>
       <c r="D4" t="n">
-        <v>332.0686357961831</v>
+        <v>64.81505917574253</v>
       </c>
       <c r="E4" t="n">
-        <v>332.0686357961831</v>
+        <v>64.81505917574253</v>
       </c>
       <c r="F4" t="n">
-        <v>332.0686357961831</v>
+        <v>64.81505917574253</v>
       </c>
       <c r="G4" t="n">
-        <v>332.0686357961831</v>
+        <v>64.81505917574253</v>
       </c>
       <c r="H4" t="n">
-        <v>176.5900847576771</v>
+        <v>64.81505917574253</v>
       </c>
       <c r="I4" t="n">
-        <v>43.49565939475493</v>
+        <v>41.5032467563385</v>
       </c>
       <c r="J4" t="n">
-        <v>43.49565939475493</v>
+        <v>41.5032467563385</v>
       </c>
       <c r="K4" t="n">
-        <v>125.3307005046968</v>
+        <v>123.3382878662804</v>
       </c>
       <c r="L4" t="n">
-        <v>289.4583403784966</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M4" t="n">
-        <v>475.7499187167606</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N4" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O4" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P4" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R4" t="n">
-        <v>821.0416925688844</v>
+        <v>819.0492799304679</v>
       </c>
       <c r="S4" t="n">
-        <v>821.0416925688844</v>
+        <v>616.2331961130174</v>
       </c>
       <c r="T4" t="n">
-        <v>821.0416925688844</v>
+        <v>616.2331961130174</v>
       </c>
       <c r="U4" t="n">
-        <v>821.0416925688844</v>
+        <v>330.7944043549183</v>
       </c>
       <c r="V4" t="n">
-        <v>555.0623473897086</v>
+        <v>64.81505917574253</v>
       </c>
       <c r="W4" t="n">
-        <v>332.0686357961831</v>
+        <v>64.81505917574253</v>
       </c>
       <c r="X4" t="n">
-        <v>332.0686357961831</v>
+        <v>64.81505917574253</v>
       </c>
       <c r="Y4" t="n">
-        <v>332.0686357961831</v>
+        <v>64.81505917574253</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>752.425650582454</v>
+        <v>1422.918899172125</v>
       </c>
       <c r="C5" t="n">
-        <v>527.8922126370104</v>
+        <v>1422.918899172125</v>
       </c>
       <c r="D5" t="n">
-        <v>527.8922126370104</v>
+        <v>1037.477770388792</v>
       </c>
       <c r="E5" t="n">
-        <v>527.8922126370104</v>
+        <v>634.8942455053368</v>
       </c>
       <c r="F5" t="n">
-        <v>515.0381782073922</v>
+        <v>217.9998070353146</v>
       </c>
       <c r="G5" t="n">
-        <v>505.9158267357994</v>
+        <v>179.8403636638737</v>
       </c>
       <c r="H5" t="n">
-        <v>181.8327763022901</v>
+        <v>179.8403636638737</v>
       </c>
       <c r="I5" t="n">
-        <v>43.49565939475493</v>
+        <v>41.5032467563385</v>
       </c>
       <c r="J5" t="n">
-        <v>180.5787412169569</v>
+        <v>186.1530196651666</v>
       </c>
       <c r="K5" t="n">
-        <v>180.5787412169569</v>
+        <v>545.1353756926285</v>
       </c>
       <c r="L5" t="n">
-        <v>673.8990329354857</v>
+        <v>588.4870060424371</v>
       </c>
       <c r="M5" t="n">
-        <v>673.8990329354857</v>
+        <v>588.4870060424371</v>
       </c>
       <c r="N5" t="n">
-        <v>1201.710316572948</v>
+        <v>1102.089684652126</v>
       </c>
       <c r="O5" t="n">
-        <v>1641.749917465276</v>
+        <v>1542.129285544454</v>
       </c>
       <c r="P5" t="n">
-        <v>1989.937409596798</v>
+        <v>1890.316777675976</v>
       </c>
       <c r="Q5" t="n">
-        <v>2174.782969737746</v>
+        <v>2075.162337816925</v>
       </c>
       <c r="R5" t="n">
-        <v>2136.790056023268</v>
+        <v>2075.162337816925</v>
       </c>
       <c r="S5" t="n">
-        <v>1970.276500964319</v>
+        <v>2075.162337816925</v>
       </c>
       <c r="T5" t="n">
-        <v>1746.775898523736</v>
+        <v>2075.162337816925</v>
       </c>
       <c r="U5" t="n">
-        <v>1491.023168958334</v>
+        <v>1819.409608251523</v>
       </c>
       <c r="V5" t="n">
-        <v>1148.916359661853</v>
+        <v>1819.409608251523</v>
       </c>
       <c r="W5" t="n">
-        <v>1148.916359661853</v>
+        <v>1819.409608251523</v>
       </c>
       <c r="X5" t="n">
-        <v>1148.916359661853</v>
+        <v>1819.409608251523</v>
       </c>
       <c r="Y5" t="n">
-        <v>752.425650582454</v>
+        <v>1422.918899172125</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>842.8616425347859</v>
+        <v>840.8692298963695</v>
       </c>
       <c r="C6" t="n">
-        <v>692.2074120948781</v>
+        <v>690.2149994564617</v>
       </c>
       <c r="D6" t="n">
-        <v>562.1184447163585</v>
+        <v>560.126032077942</v>
       </c>
       <c r="E6" t="n">
-        <v>425.6719538272462</v>
+        <v>423.6795411888297</v>
       </c>
       <c r="F6" t="n">
-        <v>301.240147710378</v>
+        <v>299.2477350719615</v>
       </c>
       <c r="G6" t="n">
-        <v>181.1803297822424</v>
+        <v>179.187917143826</v>
       </c>
       <c r="H6" t="n">
-        <v>92.88291338284334</v>
+        <v>90.8905007444269</v>
       </c>
       <c r="I6" t="n">
-        <v>43.49565939475493</v>
+        <v>41.5032467563385</v>
       </c>
       <c r="J6" t="n">
-        <v>156.6106416144823</v>
+        <v>154.6182289760659</v>
       </c>
       <c r="K6" t="n">
-        <v>476.3497876767087</v>
+        <v>474.3573750382923</v>
       </c>
       <c r="L6" t="n">
-        <v>959.915873575022</v>
+        <v>957.9234609366056</v>
       </c>
       <c r="M6" t="n">
-        <v>1498.174658585114</v>
+        <v>1327.194567652345</v>
       </c>
       <c r="N6" t="n">
-        <v>2036.433443595206</v>
+        <v>1327.194567652345</v>
       </c>
       <c r="O6" t="n">
-        <v>2174.782969737746</v>
+        <v>1840.797246262034</v>
       </c>
       <c r="P6" t="n">
-        <v>2174.782969737746</v>
+        <v>1840.797246262034</v>
       </c>
       <c r="Q6" t="n">
-        <v>2174.782969737746</v>
+        <v>2075.162337816925</v>
       </c>
       <c r="R6" t="n">
-        <v>2174.782969737746</v>
+        <v>2075.162337816925</v>
       </c>
       <c r="S6" t="n">
-        <v>2174.782969737746</v>
+        <v>2075.162337816925</v>
       </c>
       <c r="T6" t="n">
-        <v>2025.999662367233</v>
+        <v>2024.007249728816</v>
       </c>
       <c r="U6" t="n">
-        <v>1815.936519045874</v>
+        <v>1813.944106407458</v>
       </c>
       <c r="V6" t="n">
-        <v>1593.396517416941</v>
+        <v>1591.404104778525</v>
       </c>
       <c r="W6" t="n">
-        <v>1363.279271550228</v>
+        <v>1361.286858911812</v>
       </c>
       <c r="X6" t="n">
-        <v>1173.97219390024</v>
+        <v>1171.979781261824</v>
       </c>
       <c r="Y6" t="n">
-        <v>994.6579769757473</v>
+        <v>992.6655643373308</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>680.1130112616399</v>
+        <v>71.88151693023656</v>
       </c>
       <c r="C7" t="n">
-        <v>680.1130112616399</v>
+        <v>71.88151693023656</v>
       </c>
       <c r="D7" t="n">
-        <v>680.1130112616399</v>
+        <v>71.88151693023656</v>
       </c>
       <c r="E7" t="n">
-        <v>524.5541991208424</v>
+        <v>71.88151693023656</v>
       </c>
       <c r="F7" t="n">
-        <v>367.2282643338154</v>
+        <v>71.88151693023656</v>
       </c>
       <c r="G7" t="n">
-        <v>198.974210433261</v>
+        <v>71.88151693023656</v>
       </c>
       <c r="H7" t="n">
-        <v>43.49565939475493</v>
+        <v>71.88151693023656</v>
       </c>
       <c r="I7" t="n">
-        <v>43.49565939475493</v>
+        <v>71.88151693023656</v>
       </c>
       <c r="J7" t="n">
-        <v>43.49565939475493</v>
+        <v>41.5032467563385</v>
       </c>
       <c r="K7" t="n">
-        <v>125.3307005046968</v>
+        <v>123.3382878662804</v>
       </c>
       <c r="L7" t="n">
-        <v>289.4583403784966</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M7" t="n">
-        <v>475.7499187167606</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N7" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O7" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P7" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R7" t="n">
-        <v>944.9426819363074</v>
+        <v>819.0492799304679</v>
       </c>
       <c r="S7" t="n">
-        <v>742.1265981188567</v>
+        <v>616.2331961130174</v>
       </c>
       <c r="T7" t="n">
-        <v>742.1265981188567</v>
+        <v>380.5141442812514</v>
       </c>
       <c r="U7" t="n">
-        <v>742.1265981188567</v>
+        <v>95.07535252315239</v>
       </c>
       <c r="V7" t="n">
-        <v>742.1265981188567</v>
+        <v>95.07535252315239</v>
       </c>
       <c r="W7" t="n">
-        <v>742.1265981188567</v>
+        <v>71.88151693023656</v>
       </c>
       <c r="X7" t="n">
-        <v>742.1265981188567</v>
+        <v>71.88151693023656</v>
       </c>
       <c r="Y7" t="n">
-        <v>680.1130112616399</v>
+        <v>71.88151693023656</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1058.454908578377</v>
+        <v>1256.051951669587</v>
       </c>
       <c r="C8" t="n">
-        <v>1058.454908578377</v>
+        <v>862.8764501725179</v>
       </c>
       <c r="D8" t="n">
-        <v>673.0137797950449</v>
+        <v>862.8764501725179</v>
       </c>
       <c r="E8" t="n">
-        <v>270.4302549115894</v>
+        <v>862.8764501725179</v>
       </c>
       <c r="F8" t="n">
-        <v>56.43532157313638</v>
+        <v>445.9820117024957</v>
       </c>
       <c r="G8" t="n">
         <v>47.31297010154361</v>
@@ -4802,22 +4802,22 @@
         <v>47.31297010154361</v>
       </c>
       <c r="J8" t="n">
-        <v>191.9627430103717</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K8" t="n">
-        <v>550.9450990378335</v>
+        <v>406.2953261290054</v>
       </c>
       <c r="L8" t="n">
-        <v>1044.265390756362</v>
+        <v>864.7645682749193</v>
       </c>
       <c r="M8" t="n">
-        <v>1590.266290800943</v>
+        <v>864.7645682749193</v>
       </c>
       <c r="N8" t="n">
-        <v>2118.077574438405</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="O8" t="n">
-        <v>2118.077574438405</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P8" t="n">
         <v>2180.802944936232</v>
@@ -4826,28 +4826,28 @@
         <v>2365.64850507718</v>
       </c>
       <c r="R8" t="n">
-        <v>2327.655591362702</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S8" t="n">
-        <v>2327.655591362702</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="T8" t="n">
-        <v>2104.154988922119</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="U8" t="n">
-        <v>1848.402259356717</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="V8" t="n">
-        <v>1848.402259356717</v>
+        <v>2023.541695780699</v>
       </c>
       <c r="W8" t="n">
-        <v>1848.402259356717</v>
+        <v>1652.542660748986</v>
       </c>
       <c r="X8" t="n">
-        <v>1458.949654289774</v>
+        <v>1652.542660748986</v>
       </c>
       <c r="Y8" t="n">
-        <v>1458.949654289774</v>
+        <v>1256.051951669587</v>
       </c>
     </row>
     <row r="9">
@@ -4881,16 +4881,16 @@
         <v>47.31297010154367</v>
       </c>
       <c r="J9" t="n">
-        <v>47.31297010154367</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K9" t="n">
-        <v>47.31297010154367</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L9" t="n">
-        <v>47.31297010154361</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M9" t="n">
-        <v>623.6437572083089</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="N9" t="n">
         <v>1209.141762214911</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C10" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D10" t="n">
-        <v>817.0247473313507</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E10" t="n">
-        <v>661.4659351905532</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F10" t="n">
-        <v>504.1400004035262</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G10" t="n">
-        <v>335.8859465029718</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H10" t="n">
-        <v>180.4073954644657</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I10" t="n">
         <v>47.31297010154361</v>
@@ -4993,19 +4993,19 @@
         <v>948.7599926430961</v>
       </c>
       <c r="U10" t="n">
-        <v>948.7599926430961</v>
+        <v>830.7030395665587</v>
       </c>
       <c r="V10" t="n">
-        <v>948.7599926430961</v>
+        <v>564.7236943873829</v>
       </c>
       <c r="W10" t="n">
-        <v>948.7599926430961</v>
+        <v>281.3932923185605</v>
       </c>
       <c r="X10" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y10" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1888.485543579474</v>
+        <v>1585.922882304368</v>
       </c>
       <c r="C11" t="n">
-        <v>1567.106317228598</v>
+        <v>1264.543655953493</v>
       </c>
       <c r="D11" t="n">
-        <v>1398.198638179666</v>
+        <v>1264.543655953493</v>
       </c>
       <c r="E11" t="n">
-        <v>1067.411388442404</v>
+        <v>933.756406216231</v>
       </c>
       <c r="F11" t="n">
-        <v>722.3132251185756</v>
+        <v>588.6582428924027</v>
       </c>
       <c r="G11" t="n">
-        <v>380.9467447527726</v>
+        <v>314.4059029914312</v>
       </c>
       <c r="H11" t="n">
-        <v>128.659969465457</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="I11" t="n">
         <v>62.11912770411573</v>
@@ -5069,22 +5069,22 @@
         <v>3011.239105293021</v>
       </c>
       <c r="T11" t="n">
-        <v>2859.534777998631</v>
+        <v>3011.239105293021</v>
       </c>
       <c r="U11" t="n">
-        <v>2859.534777998631</v>
+        <v>2827.282650873813</v>
       </c>
       <c r="V11" t="n">
-        <v>2859.534777998631</v>
+        <v>2556.972116723525</v>
       </c>
       <c r="W11" t="n">
-        <v>2859.534777998631</v>
+        <v>2556.972116723525</v>
       </c>
       <c r="X11" t="n">
-        <v>2541.878448077882</v>
+        <v>2239.315786802776</v>
       </c>
       <c r="Y11" t="n">
-        <v>2217.184014144677</v>
+        <v>1914.621352869571</v>
       </c>
     </row>
     <row r="12">
@@ -5118,25 +5118,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J12" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K12" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L12" t="n">
-        <v>381.858273766342</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M12" t="n">
-        <v>1009.629923393023</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="N12" t="n">
-        <v>1223.947919817482</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O12" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P12" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q12" t="n">
         <v>2380.454662679751</v>
@@ -5173,16 +5173,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>655.0952099420618</v>
+        <v>571.2583719907703</v>
       </c>
       <c r="C13" t="n">
-        <v>556.686367154245</v>
+        <v>472.8495292029534</v>
       </c>
       <c r="D13" t="n">
-        <v>472.8495292029535</v>
+        <v>472.8495292029534</v>
       </c>
       <c r="E13" t="n">
-        <v>389.0869922083499</v>
+        <v>389.0869922083498</v>
       </c>
       <c r="F13" t="n">
         <v>303.5573325675166</v>
@@ -5206,10 +5206,10 @@
         <v>489.4106539027734</v>
       </c>
       <c r="M13" t="n">
-        <v>746.069761511822</v>
+        <v>746.0697615118221</v>
       </c>
       <c r="N13" t="n">
-        <v>999.6269248138158</v>
+        <v>999.6269248138159</v>
       </c>
       <c r="O13" t="n">
         <v>1232.699221126308</v>
@@ -5218,31 +5218,31 @@
         <v>1422.942916173672</v>
       </c>
       <c r="Q13" t="n">
-        <v>1496.732641814508</v>
+        <v>1496.732641814507</v>
       </c>
       <c r="R13" t="n">
-        <v>1496.732641814508</v>
+        <v>1444.627927593278</v>
       </c>
       <c r="S13" t="n">
-        <v>1365.712833143251</v>
+        <v>1313.608118922021</v>
       </c>
       <c r="T13" t="n">
-        <v>1201.790056457679</v>
+        <v>1313.608118922021</v>
       </c>
       <c r="U13" t="n">
-        <v>1201.790056457679</v>
+        <v>1099.965602310116</v>
       </c>
       <c r="V13" t="n">
-        <v>1007.606986424697</v>
+        <v>905.7825322771341</v>
       </c>
       <c r="W13" t="n">
-        <v>930.7910005579924</v>
+        <v>694.2484053545056</v>
       </c>
       <c r="X13" t="n">
-        <v>768.5069534871693</v>
+        <v>694.2484053545056</v>
       </c>
       <c r="Y13" t="n">
-        <v>768.5069534871693</v>
+        <v>684.6701155358778</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1874.686986489886</v>
+        <v>1135.01579512446</v>
       </c>
       <c r="C14" t="n">
-        <v>1553.307760139011</v>
+        <v>813.6365687735846</v>
       </c>
       <c r="D14" t="n">
-        <v>1398.198638179665</v>
+        <v>813.6365687735846</v>
       </c>
       <c r="E14" t="n">
-        <v>1067.411388442404</v>
+        <v>482.849319036323</v>
       </c>
       <c r="F14" t="n">
-        <v>722.3132251185754</v>
+        <v>314.405902991431</v>
       </c>
       <c r="G14" t="n">
-        <v>380.9467447527724</v>
+        <v>314.405902991431</v>
       </c>
       <c r="H14" t="n">
-        <v>128.6599694654569</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I14" t="n">
         <v>62.11912770411553</v>
@@ -5306,22 +5306,22 @@
         <v>3011.239105293021</v>
       </c>
       <c r="T14" t="n">
-        <v>3011.239105293021</v>
+        <v>2859.534777998631</v>
       </c>
       <c r="U14" t="n">
-        <v>2827.282650873813</v>
+        <v>2675.578323579423</v>
       </c>
       <c r="V14" t="n">
-        <v>2827.282650873813</v>
+        <v>2405.267789429136</v>
       </c>
       <c r="W14" t="n">
-        <v>2528.079890988294</v>
+        <v>2106.065029543617</v>
       </c>
       <c r="X14" t="n">
-        <v>2528.079890988294</v>
+        <v>1788.408699622868</v>
       </c>
       <c r="Y14" t="n">
-        <v>2203.385457055089</v>
+        <v>1463.714265689663</v>
       </c>
     </row>
     <row r="15">
@@ -5355,25 +5355,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J15" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K15" t="n">
-        <v>494.9732559860694</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L15" t="n">
-        <v>978.5393418843826</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M15" t="n">
-        <v>1606.310991511064</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="N15" t="n">
-        <v>1740.468202408463</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O15" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P15" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q15" t="n">
         <v>2380.454662679751</v>
@@ -5410,46 +5410,46 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>485.803013306625</v>
+        <v>655.0952099420614</v>
       </c>
       <c r="C16" t="n">
-        <v>387.394170518808</v>
+        <v>556.6863671542445</v>
       </c>
       <c r="D16" t="n">
-        <v>303.5573325675167</v>
+        <v>472.8495292029531</v>
       </c>
       <c r="E16" t="n">
-        <v>303.5573325675167</v>
+        <v>389.0869922083497</v>
       </c>
       <c r="F16" t="n">
-        <v>303.5573325675167</v>
+        <v>303.5573325675165</v>
       </c>
       <c r="G16" t="n">
-        <v>207.099553813156</v>
+        <v>207.0995538131559</v>
       </c>
       <c r="H16" t="n">
-        <v>123.4172779208438</v>
+        <v>123.4172779208437</v>
       </c>
       <c r="I16" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J16" t="n">
-        <v>102.7129143774625</v>
+        <v>102.7129143774628</v>
       </c>
       <c r="K16" t="n">
-        <v>254.915484758189</v>
+        <v>254.9154847581892</v>
       </c>
       <c r="L16" t="n">
-        <v>489.4106539027733</v>
+        <v>489.4106539027736</v>
       </c>
       <c r="M16" t="n">
-        <v>746.069761511822</v>
+        <v>746.0697615118222</v>
       </c>
       <c r="N16" t="n">
-        <v>999.6269248138158</v>
+        <v>999.6269248138161</v>
       </c>
       <c r="O16" t="n">
-        <v>1232.699221126308</v>
+        <v>1232.699221126309</v>
       </c>
       <c r="P16" t="n">
         <v>1422.942916173672</v>
@@ -5458,28 +5458,28 @@
         <v>1496.732641814507</v>
       </c>
       <c r="R16" t="n">
-        <v>1496.732641814507</v>
+        <v>1444.627927593278</v>
       </c>
       <c r="S16" t="n">
-        <v>1365.71283314325</v>
+        <v>1444.627927593278</v>
       </c>
       <c r="T16" t="n">
-        <v>1201.790056457678</v>
+        <v>1444.627927593278</v>
       </c>
       <c r="U16" t="n">
-        <v>988.1475398457731</v>
+        <v>1230.985410981373</v>
       </c>
       <c r="V16" t="n">
-        <v>793.9644698127912</v>
+        <v>1230.985410981373</v>
       </c>
       <c r="W16" t="n">
-        <v>750.5305428888953</v>
+        <v>1019.451284058744</v>
       </c>
       <c r="X16" t="n">
-        <v>750.5305428888953</v>
+        <v>919.8227395243315</v>
       </c>
       <c r="Y16" t="n">
-        <v>599.2147568517324</v>
+        <v>768.5069534871687</v>
       </c>
     </row>
     <row r="17">
@@ -5489,10 +5489,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414178</v>
       </c>
       <c r="C17" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599517</v>
       </c>
       <c r="D17" t="n">
         <v>1098.796330498592</v>
@@ -5507,25 +5507,25 @@
         <v>261.1858216803431</v>
       </c>
       <c r="H17" t="n">
-        <v>68.77950792924224</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I17" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J17" t="n">
-        <v>206.7689006129445</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K17" t="n">
-        <v>565.7512566404064</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L17" t="n">
-        <v>1059.071548358935</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M17" t="n">
-        <v>1605.072448403516</v>
+        <v>1605.072448403515</v>
       </c>
       <c r="N17" t="n">
-        <v>2132.883732040978</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O17" t="n">
         <v>2572.923332933306</v>
@@ -5534,10 +5534,10 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q17" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R17" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S17" t="n">
         <v>3071.119566829236</v>
@@ -5552,10 +5552,10 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W17" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X17" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840157</v>
       </c>
       <c r="Y17" t="n">
         <v>1882.877496443166</v>
@@ -5601,16 +5601,16 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M18" t="n">
-        <v>978.5393418843826</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N18" t="n">
-        <v>1223.947919817482</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="O18" t="n">
-        <v>1740.468202408463</v>
+        <v>2122.831274102045</v>
       </c>
       <c r="P18" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q18" t="n">
         <v>2380.454662679751</v>
@@ -5665,7 +5665,7 @@
         <v>87.33863074072673</v>
       </c>
       <c r="H19" t="n">
-        <v>63.53681638462918</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I19" t="n">
         <v>62.11912770411553</v>
@@ -5677,16 +5677,16 @@
         <v>143.9541688140574</v>
       </c>
       <c r="L19" t="n">
-        <v>437.1381783102856</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M19" t="n">
-        <v>629.0093992567336</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N19" t="n">
-        <v>812.1990332879427</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O19" t="n">
-        <v>974.9038003296507</v>
+        <v>845.8474307072222</v>
       </c>
       <c r="P19" t="n">
         <v>1094.779966106229</v>
@@ -5838,16 +5838,16 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M21" t="n">
-        <v>1606.310991511064</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N21" t="n">
-        <v>1606.310991511064</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O21" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P21" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q21" t="n">
         <v>2380.454662679751</v>
@@ -5911,22 +5911,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K22" t="n">
-        <v>273.0105384364859</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L22" t="n">
-        <v>442.7178209184696</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M22" t="n">
-        <v>629.0093992567336</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N22" t="n">
-        <v>812.1990332879427</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O22" t="n">
-        <v>974.9038003296507</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P22" t="n">
-        <v>1094.779966106229</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q22" t="n">
         <v>1098.20216247628</v>
@@ -5981,7 +5981,7 @@
         <v>261.185821680343</v>
       </c>
       <c r="H23" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924224</v>
       </c>
       <c r="I23" t="n">
         <v>62.11912770411553</v>
@@ -6011,10 +6011,10 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R23" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S23" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T23" t="n">
         <v>2979.295701071061</v>
@@ -6066,25 +6066,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J24" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K24" t="n">
-        <v>494.9732559860694</v>
+        <v>346.9752758473783</v>
       </c>
       <c r="L24" t="n">
-        <v>978.5393418843826</v>
+        <v>830.5413617456916</v>
       </c>
       <c r="M24" t="n">
-        <v>978.5393418843826</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="N24" t="n">
-        <v>1634.317313094942</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O24" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P24" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q24" t="n">
         <v>2380.454662679751</v>
@@ -6139,7 +6139,7 @@
         <v>87.33863074072673</v>
       </c>
       <c r="H25" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462918</v>
       </c>
       <c r="I25" t="n">
         <v>62.11912770411553</v>
@@ -6157,13 +6157,13 @@
         <v>494.3733870261212</v>
       </c>
       <c r="N25" t="n">
-        <v>806.6193906797589</v>
+        <v>683.142663665514</v>
       </c>
       <c r="O25" t="n">
-        <v>974.9038003296507</v>
+        <v>845.8474307072221</v>
       </c>
       <c r="P25" t="n">
-        <v>1094.779966106229</v>
+        <v>965.7235964838006</v>
       </c>
       <c r="Q25" t="n">
         <v>1098.20216247628</v>
@@ -6206,49 +6206,49 @@
         <v>1584.222786214271</v>
       </c>
       <c r="D26" t="n">
-        <v>1293.722338718127</v>
+        <v>1293.722338718128</v>
       </c>
       <c r="E26" t="n">
-        <v>986.0794951218597</v>
+        <v>986.0794951218604</v>
       </c>
       <c r="F26" t="n">
-        <v>664.1257379390261</v>
+        <v>664.1257379390265</v>
       </c>
       <c r="G26" t="n">
         <v>345.9036637142181</v>
       </c>
       <c r="H26" t="n">
-        <v>116.7612945678971</v>
+        <v>116.761294567897</v>
       </c>
       <c r="I26" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J26" t="n">
-        <v>218.0146318563784</v>
+        <v>311.0659935859517</v>
       </c>
       <c r="K26" t="n">
-        <v>606.9665031662622</v>
+        <v>763.0997113429868</v>
       </c>
       <c r="L26" t="n">
-        <v>1193.338156614364</v>
+        <v>1349.471364791089</v>
       </c>
       <c r="M26" t="n">
-        <v>1832.390418388518</v>
+        <v>1988.523626565243</v>
       </c>
       <c r="N26" t="n">
-        <v>2453.253063755554</v>
+        <v>2546.304425485126</v>
       </c>
       <c r="O26" t="n">
-        <v>2986.344026377456</v>
+        <v>2986.344026377455</v>
       </c>
       <c r="P26" t="n">
-        <v>3334.531518508978</v>
+        <v>3427.58288023855</v>
       </c>
       <c r="Q26" t="n">
-        <v>3612.4284403795</v>
+        <v>3612.428440379499</v>
       </c>
       <c r="R26" t="n">
-        <v>3668.242947377513</v>
+        <v>3668.242947377512</v>
       </c>
       <c r="S26" t="n">
         <v>3596.670073605751</v>
@@ -6257,7 +6257,7 @@
         <v>3468.110152452356</v>
       </c>
       <c r="U26" t="n">
-        <v>3307.298104174144</v>
+        <v>3307.298104174143</v>
       </c>
       <c r="V26" t="n">
         <v>3060.13197616485</v>
@@ -6297,10 +6297,10 @@
         <v>211.0495293350377</v>
       </c>
       <c r="H27" t="n">
-        <v>122.7521129356387</v>
+        <v>122.7521129356386</v>
       </c>
       <c r="I27" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J27" t="n">
         <v>186.4798411672776</v>
@@ -6312,10 +6312,10 @@
         <v>989.7850731278173</v>
       </c>
       <c r="M27" t="n">
-        <v>1617.556722754498</v>
+        <v>989.7850731278173</v>
       </c>
       <c r="N27" t="n">
-        <v>1751.713933651898</v>
+        <v>1235.193651060917</v>
       </c>
       <c r="O27" t="n">
         <v>1751.713933651898</v>
@@ -6358,13 +6358,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>504.3300981985352</v>
+        <v>504.3300981985351</v>
       </c>
       <c r="C28" t="n">
-        <v>429.0656615517127</v>
+        <v>429.065661551713</v>
       </c>
       <c r="D28" t="n">
-        <v>368.3732297414158</v>
+        <v>368.3732297414161</v>
       </c>
       <c r="E28" t="n">
         <v>307.7550988878066</v>
@@ -6373,25 +6373,25 @@
         <v>245.369845387968</v>
       </c>
       <c r="G28" t="n">
-        <v>172.0564727746018</v>
+        <v>172.056472774602</v>
       </c>
       <c r="H28" t="n">
-        <v>111.518603023284</v>
+        <v>111.5186030232841</v>
       </c>
       <c r="I28" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J28" t="n">
-        <v>136.6424780796861</v>
+        <v>136.6424780796862</v>
       </c>
       <c r="K28" t="n">
         <v>311.5288809192012</v>
       </c>
       <c r="L28" t="n">
-        <v>568.7078825225743</v>
+        <v>568.7078825225741</v>
       </c>
       <c r="M28" t="n">
-        <v>848.0508225904118</v>
+        <v>848.0508225904113</v>
       </c>
       <c r="N28" t="n">
         <v>1124.291818351194</v>
@@ -6421,10 +6421,10 @@
         <v>1050.298177210279</v>
       </c>
       <c r="W28" t="n">
-        <v>861.9084564286447</v>
+        <v>861.908456428645</v>
       </c>
       <c r="X28" t="n">
-        <v>722.7688154988163</v>
+        <v>722.7688154988164</v>
       </c>
       <c r="Y28" t="n">
         <v>594.597435602648</v>
@@ -6437,58 +6437,58 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1882.457606424152</v>
+        <v>1882.457606424153</v>
       </c>
       <c r="C29" t="n">
-        <v>1584.222786214271</v>
+        <v>1584.222786214272</v>
       </c>
       <c r="D29" t="n">
-        <v>1293.722338718127</v>
+        <v>1293.722338718128</v>
       </c>
       <c r="E29" t="n">
-        <v>986.0794951218602</v>
+        <v>986.0794951218604</v>
       </c>
       <c r="F29" t="n">
-        <v>664.1257379390263</v>
+        <v>664.1257379390265</v>
       </c>
       <c r="G29" t="n">
-        <v>345.9036637142178</v>
+        <v>345.9036637142181</v>
       </c>
       <c r="H29" t="n">
         <v>116.7612945678971</v>
       </c>
       <c r="I29" t="n">
-        <v>73.36485894755027</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J29" t="n">
         <v>218.0146318563784</v>
       </c>
       <c r="K29" t="n">
-        <v>576.9969878838402</v>
+        <v>606.9665031662622</v>
       </c>
       <c r="L29" t="n">
-        <v>1100.286794884792</v>
+        <v>1193.338156614364</v>
       </c>
       <c r="M29" t="n">
-        <v>1739.339056658946</v>
+        <v>1832.390418388518</v>
       </c>
       <c r="N29" t="n">
-        <v>2360.201702025981</v>
+        <v>2453.253063755554</v>
       </c>
       <c r="O29" t="n">
-        <v>2893.292664647883</v>
+        <v>2986.344026377456</v>
       </c>
       <c r="P29" t="n">
-        <v>3334.531518508978</v>
+        <v>3427.582880238551</v>
       </c>
       <c r="Q29" t="n">
         <v>3612.4284403795</v>
       </c>
       <c r="R29" t="n">
-        <v>3668.242947377514</v>
+        <v>3668.242947377513</v>
       </c>
       <c r="S29" t="n">
-        <v>3596.670073605753</v>
+        <v>3596.670073605752</v>
       </c>
       <c r="T29" t="n">
         <v>3468.110152452357</v>
@@ -6537,7 +6537,7 @@
         <v>122.7521129356387</v>
       </c>
       <c r="I30" t="n">
-        <v>73.36485894755027</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J30" t="n">
         <v>186.4798411672776</v>
@@ -6549,10 +6549,10 @@
         <v>989.7850731278173</v>
       </c>
       <c r="M30" t="n">
-        <v>989.7850731278173</v>
+        <v>1235.193651060917</v>
       </c>
       <c r="N30" t="n">
-        <v>1645.563044338376</v>
+        <v>1235.193651060917</v>
       </c>
       <c r="O30" t="n">
         <v>1751.713933651898</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>504.3300981985349</v>
+        <v>504.3300981985352</v>
       </c>
       <c r="C31" t="n">
-        <v>429.0656615517125</v>
+        <v>429.0656615517128</v>
       </c>
       <c r="D31" t="n">
         <v>368.3732297414156</v>
       </c>
       <c r="E31" t="n">
-        <v>307.7550988878064</v>
+        <v>307.7550988878068</v>
       </c>
       <c r="F31" t="n">
-        <v>245.3698453879677</v>
+        <v>245.3698453879681</v>
       </c>
       <c r="G31" t="n">
-        <v>172.0564727746016</v>
+        <v>172.056472774602</v>
       </c>
       <c r="H31" t="n">
-        <v>111.518603023284</v>
+        <v>111.5186030232843</v>
       </c>
       <c r="I31" t="n">
-        <v>73.36485894755027</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J31" t="n">
         <v>136.6424780796861</v>
@@ -6625,16 +6625,16 @@
         <v>311.5288809192012</v>
       </c>
       <c r="L31" t="n">
-        <v>568.7078825225743</v>
+        <v>568.7078825225741</v>
       </c>
       <c r="M31" t="n">
-        <v>848.0508225904116</v>
+        <v>848.0508225904115</v>
       </c>
       <c r="N31" t="n">
         <v>1124.291818351194</v>
       </c>
       <c r="O31" t="n">
-        <v>1380.047947122476</v>
+        <v>1380.047947122475</v>
       </c>
       <c r="P31" t="n">
         <v>1592.975474628627</v>
@@ -6658,13 +6658,13 @@
         <v>1050.298177210279</v>
       </c>
       <c r="W31" t="n">
-        <v>861.9084564286447</v>
+        <v>861.908456428645</v>
       </c>
       <c r="X31" t="n">
-        <v>722.7688154988161</v>
+        <v>722.7688154988165</v>
       </c>
       <c r="Y31" t="n">
-        <v>594.5974356026478</v>
+        <v>594.5974356026481</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1791.35112422213</v>
+        <v>1743.798875918591</v>
       </c>
       <c r="C32" t="n">
-        <v>1505.586185654425</v>
+        <v>1464.542485303047</v>
       </c>
       <c r="D32" t="n">
-        <v>1227.555619800457</v>
+        <v>1193.020467401239</v>
       </c>
       <c r="E32" t="n">
-        <v>932.3826578463663</v>
+        <v>904.3560533993084</v>
       </c>
       <c r="F32" t="n">
-        <v>622.8987823057087</v>
+        <v>601.3807258108112</v>
       </c>
       <c r="G32" t="n">
-        <v>317.1465897230767</v>
+        <v>302.1370811803395</v>
       </c>
       <c r="H32" t="n">
-        <v>100.4741022189322</v>
+        <v>91.97314162835526</v>
       </c>
       <c r="I32" t="n">
-        <v>69.54754824076161</v>
+        <v>67.55513560234515</v>
       </c>
       <c r="J32" t="n">
-        <v>214.1973211495897</v>
+        <v>323.857029086156</v>
       </c>
       <c r="K32" t="n">
-        <v>573.1796771770515</v>
+        <v>794.4915056886006</v>
       </c>
       <c r="L32" t="n">
-        <v>1066.49996889558</v>
+        <v>1287.811797407129</v>
       </c>
       <c r="M32" t="n">
-        <v>1612.500868940161</v>
+        <v>1876.872843314996</v>
       </c>
       <c r="N32" t="n">
-        <v>2225.722335423631</v>
+        <v>2404.684126952458</v>
       </c>
       <c r="O32" t="n">
-        <v>2771.03502904303</v>
+        <v>2844.723727844786</v>
       </c>
       <c r="P32" t="n">
-        <v>3119.222521174551</v>
+        <v>3192.911219976309</v>
       </c>
       <c r="Q32" t="n">
-        <v>3409.34117404257</v>
+        <v>3377.756780117257</v>
       </c>
       <c r="R32" t="n">
-        <v>3477.37741203808</v>
+        <v>3377.756780117257</v>
       </c>
       <c r="S32" t="n">
-        <v>3418.274419908496</v>
+        <v>3325.162335939833</v>
       </c>
       <c r="T32" t="n">
-        <v>3302.184380397277</v>
+        <v>3215.580844380775</v>
       </c>
       <c r="U32" t="n">
-        <v>3153.84221376124</v>
+        <v>3073.747225696899</v>
       </c>
       <c r="V32" t="n">
-        <v>2919.145967394124</v>
+        <v>2845.559527281942</v>
       </c>
       <c r="W32" t="n">
-        <v>2655.557495291775</v>
+        <v>2588.479603131755</v>
       </c>
       <c r="X32" t="n">
-        <v>2373.515453154197</v>
+        <v>2312.946108946337</v>
       </c>
       <c r="Y32" t="n">
-        <v>2084.435307004162</v>
+        <v>2030.374510748463</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>868.9135313807926</v>
+        <v>866.9211187423762</v>
       </c>
       <c r="C33" t="n">
-        <v>718.2593009408848</v>
+        <v>716.2668883024684</v>
       </c>
       <c r="D33" t="n">
-        <v>588.1703335623652</v>
+        <v>586.1779209239487</v>
       </c>
       <c r="E33" t="n">
-        <v>451.7238426732528</v>
+        <v>449.7314300348364</v>
       </c>
       <c r="F33" t="n">
-        <v>327.2920365563846</v>
+        <v>325.2996239179682</v>
       </c>
       <c r="G33" t="n">
-        <v>207.2322186282491</v>
+        <v>205.2398059898326</v>
       </c>
       <c r="H33" t="n">
-        <v>118.93480222885</v>
+        <v>116.9423895904335</v>
       </c>
       <c r="I33" t="n">
-        <v>69.54754824076161</v>
+        <v>67.55513560234515</v>
       </c>
       <c r="J33" t="n">
-        <v>182.662530460489</v>
+        <v>180.6701178220725</v>
       </c>
       <c r="K33" t="n">
-        <v>502.4016765227154</v>
+        <v>500.409263884299</v>
       </c>
       <c r="L33" t="n">
-        <v>985.9677624210287</v>
+        <v>983.9753497826123</v>
       </c>
       <c r="M33" t="n">
-        <v>1613.73941204771</v>
+        <v>1229.383927715712</v>
       </c>
       <c r="N33" t="n">
-        <v>1747.89662294511</v>
+        <v>1229.383927715712</v>
       </c>
       <c r="O33" t="n">
-        <v>1747.89662294511</v>
+        <v>1745.904210306693</v>
       </c>
       <c r="P33" t="n">
-        <v>2153.517991661507</v>
+        <v>2151.525579023091</v>
       </c>
       <c r="Q33" t="n">
-        <v>2387.883083216398</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="R33" t="n">
-        <v>2363.966040114462</v>
+        <v>2361.973627476046</v>
       </c>
       <c r="S33" t="n">
-        <v>2229.035363014331</v>
+        <v>2227.042950375915</v>
       </c>
       <c r="T33" t="n">
-        <v>2052.051551213239</v>
+        <v>2050.059138574823</v>
       </c>
       <c r="U33" t="n">
-        <v>1841.988407891881</v>
+        <v>1839.995995253465</v>
       </c>
       <c r="V33" t="n">
-        <v>1619.448406262948</v>
+        <v>1617.455993624532</v>
       </c>
       <c r="W33" t="n">
-        <v>1389.331160396235</v>
+        <v>1387.338747757819</v>
       </c>
       <c r="X33" t="n">
-        <v>1200.024082746247</v>
+        <v>1198.03167010783</v>
       </c>
       <c r="Y33" t="n">
-        <v>1020.709865821754</v>
+        <v>1018.717453183338</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>413.223615996513</v>
+        <v>365.6713676929729</v>
       </c>
       <c r="C34" t="n">
-        <v>350.4290609918668</v>
+        <v>309.3853606404872</v>
       </c>
       <c r="D34" t="n">
-        <v>302.206510823746</v>
+        <v>267.671358424527</v>
       </c>
       <c r="E34" t="n">
-        <v>254.0582616123131</v>
+        <v>226.0316571652546</v>
       </c>
       <c r="F34" t="n">
-        <v>204.1428897546506</v>
+        <v>182.6248332597526</v>
       </c>
       <c r="G34" t="n">
-        <v>143.2993987834607</v>
+        <v>128.2898902407232</v>
       </c>
       <c r="H34" t="n">
-        <v>95.23141067431919</v>
+        <v>86.7304500837422</v>
       </c>
       <c r="I34" t="n">
-        <v>69.54754824076161</v>
+        <v>67.55513560234515</v>
       </c>
       <c r="J34" t="n">
-        <v>69.54754824076161</v>
+        <v>67.55513560234515</v>
       </c>
       <c r="K34" t="n">
-        <v>151.3825893507035</v>
+        <v>149.390176712287</v>
       </c>
       <c r="L34" t="n">
-        <v>420.7833219515734</v>
+        <v>389.5437325909003</v>
       </c>
       <c r="M34" t="n">
-        <v>607.0749002898375</v>
+        <v>687.487431504147</v>
       </c>
       <c r="N34" t="n">
-        <v>895.5376270481169</v>
+        <v>982.3291861103389</v>
       </c>
       <c r="O34" t="n">
-        <v>1163.515486816895</v>
+        <v>1145.033953152047</v>
       </c>
       <c r="P34" t="n">
-        <v>1388.664745320544</v>
+        <v>1376.562239503608</v>
       </c>
       <c r="Q34" t="n">
-        <v>1486.113615746644</v>
+        <v>1379.984435873659</v>
       </c>
       <c r="R34" t="n">
-        <v>1469.623189308585</v>
+        <v>1370.002557387761</v>
       </c>
       <c r="S34" t="n">
-        <v>1374.217668420499</v>
+        <v>1281.105584451836</v>
       </c>
       <c r="T34" t="n">
-        <v>1245.909179518098</v>
+        <v>1159.305643501595</v>
       </c>
       <c r="U34" t="n">
-        <v>1067.880950689363</v>
+        <v>987.7859626250207</v>
       </c>
       <c r="V34" t="n">
-        <v>909.3121684395521</v>
+        <v>835.72572832737</v>
       </c>
       <c r="W34" t="n">
-        <v>733.3923293000943</v>
+        <v>666.3144371400726</v>
       </c>
       <c r="X34" t="n">
-        <v>606.7225700124419</v>
+        <v>546.1532258045808</v>
       </c>
       <c r="Y34" t="n">
-        <v>491.0210717584498</v>
+        <v>436.9602755027491</v>
       </c>
     </row>
     <row r="35">
@@ -6920,7 +6920,7 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E35" t="n">
-        <v>827.8895422975454</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F35" t="n">
         <v>542.6718405099314</v>
@@ -6929,25 +6929,25 @@
         <v>261.185821680343</v>
       </c>
       <c r="H35" t="n">
-        <v>68.77950792924224</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I35" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J35" t="n">
-        <v>206.7689006129449</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K35" t="n">
-        <v>565.7512566404066</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L35" t="n">
-        <v>1059.071548358935</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M35" t="n">
-        <v>1605.072448403516</v>
+        <v>1605.072448403515</v>
       </c>
       <c r="N35" t="n">
-        <v>2132.883732040978</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O35" t="n">
         <v>2572.923332933306</v>
@@ -6956,13 +6956,13 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q35" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R35" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S35" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T35" t="n">
         <v>2979.295701071061</v>
@@ -6971,10 +6971,10 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V35" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W35" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X35" t="n">
         <v>2147.691468840156</v>
@@ -7023,10 +7023,10 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M36" t="n">
-        <v>1606.310991511064</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N36" t="n">
-        <v>1740.468202408463</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O36" t="n">
         <v>1740.468202408463</v>
@@ -7069,52 +7069,52 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C37" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D37" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E37" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F37" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G37" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H37" t="n">
-        <v>63.53681638462918</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I37" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J37" t="n">
-        <v>62.11912770411553</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K37" t="n">
-        <v>143.9541688140574</v>
+        <v>243.2367958390485</v>
       </c>
       <c r="L37" t="n">
-        <v>308.0818086878572</v>
+        <v>407.3644357128483</v>
       </c>
       <c r="M37" t="n">
-        <v>494.3733870261212</v>
+        <v>593.6560140511123</v>
       </c>
       <c r="N37" t="n">
-        <v>677.5630210573304</v>
+        <v>776.8456480823215</v>
       </c>
       <c r="O37" t="n">
-        <v>969.3241577214669</v>
+        <v>939.5504151240295</v>
       </c>
       <c r="P37" t="n">
-        <v>1094.779966106229</v>
+        <v>1059.426580900608</v>
       </c>
       <c r="Q37" t="n">
-        <v>1098.20216247628</v>
+        <v>1090.581152532862</v>
       </c>
       <c r="R37" t="n">
         <v>1098.20216247628</v>
@@ -7123,22 +7123,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T37" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U37" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V37" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W37" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X37" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y37" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="38">
@@ -7157,34 +7157,34 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E38" t="n">
-        <v>827.8895422975454</v>
+        <v>827.8895422975449</v>
       </c>
       <c r="F38" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099311</v>
       </c>
       <c r="G38" t="n">
-        <v>261.1858216803432</v>
+        <v>261.1858216803428</v>
       </c>
       <c r="H38" t="n">
-        <v>68.7795079292423</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I38" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J38" t="n">
-        <v>206.7689006129449</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K38" t="n">
-        <v>565.7512566404066</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L38" t="n">
-        <v>1059.071548358935</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M38" t="n">
-        <v>1605.072448403516</v>
+        <v>1605.072448403515</v>
       </c>
       <c r="N38" t="n">
-        <v>2132.883732040978</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O38" t="n">
         <v>2572.923332933306</v>
@@ -7193,19 +7193,19 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q38" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R38" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S38" t="n">
         <v>3071.119566829236</v>
       </c>
       <c r="T38" t="n">
-        <v>2979.295701071062</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U38" t="n">
-        <v>2855.219708188069</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V38" t="n">
         <v>2644.789635573995</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>235.9319791885598</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C40" t="n">
-        <v>197.4035979369575</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D40" t="n">
-        <v>173.4472215218806</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E40" t="n">
-        <v>149.5651460634915</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F40" t="n">
-        <v>123.9159479588729</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G40" t="n">
-        <v>87.33863074072684</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H40" t="n">
-        <v>63.53681638462923</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I40" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J40" t="n">
-        <v>67.69877031230033</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K40" t="n">
-        <v>149.5338114222422</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L40" t="n">
-        <v>442.7178209184705</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M40" t="n">
-        <v>629.0093992567345</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N40" t="n">
-        <v>812.1990332879436</v>
+        <v>683.1426636655142</v>
       </c>
       <c r="O40" t="n">
-        <v>974.9038003296516</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P40" t="n">
-        <v>1094.77996610623</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q40" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R40" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S40" t="n">
-        <v>1027.062815341239</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T40" t="n">
-        <v>923.0205001918814</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U40" t="n">
-        <v>769.2584451161907</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V40" t="n">
-        <v>634.9558366194234</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W40" t="n">
-        <v>483.3021712330094</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X40" t="n">
-        <v>380.898585698401</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y40" t="n">
-        <v>289.4632611974527</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="41">
@@ -7394,34 +7394,34 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E41" t="n">
-        <v>827.8895422975449</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F41" t="n">
-        <v>542.6718405099311</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G41" t="n">
-        <v>261.1858216803436</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H41" t="n">
-        <v>68.77950792924275</v>
+        <v>68.77950792924224</v>
       </c>
       <c r="I41" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J41" t="n">
-        <v>206.7689006129449</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K41" t="n">
-        <v>565.7512566404066</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L41" t="n">
-        <v>1059.071548358935</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M41" t="n">
-        <v>1605.072448403516</v>
+        <v>1605.072448403515</v>
       </c>
       <c r="N41" t="n">
-        <v>2132.883732040978</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O41" t="n">
         <v>2572.923332933306</v>
@@ -7448,7 +7448,7 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W41" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X41" t="n">
         <v>2147.691468840156</v>
@@ -7497,7 +7497,7 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M42" t="n">
-        <v>978.5393418843826</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N42" t="n">
         <v>1223.947919817482</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C43" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D43" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E43" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F43" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G43" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H43" t="n">
-        <v>63.53681638462915</v>
+        <v>63.53681638462918</v>
       </c>
       <c r="I43" t="n">
         <v>62.11912770411553</v>
@@ -7573,19 +7573,19 @@
         <v>143.9541688140574</v>
       </c>
       <c r="L43" t="n">
-        <v>308.0818086878572</v>
+        <v>313.6614512960409</v>
       </c>
       <c r="M43" t="n">
-        <v>494.3733870261212</v>
+        <v>499.953029634305</v>
       </c>
       <c r="N43" t="n">
-        <v>677.5630210573304</v>
+        <v>812.1990332879427</v>
       </c>
       <c r="O43" t="n">
-        <v>840.2677880990384</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P43" t="n">
-        <v>965.7235964838002</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q43" t="n">
         <v>1098.20216247628</v>
@@ -7597,22 +7597,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T43" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U43" t="n">
-        <v>769.2584451161897</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V43" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W43" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X43" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y43" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="44">
@@ -7622,34 +7622,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C44" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D44" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E44" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F44" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G44" t="n">
         <v>261.185821680343</v>
       </c>
       <c r="H44" t="n">
-        <v>68.7795079292424</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I44" t="n">
-        <v>62.11912770411573</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J44" t="n">
-        <v>206.7689006129438</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K44" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L44" t="n">
         <v>1059.071548358934</v>
@@ -7679,19 +7679,19 @@
         <v>2979.295701071061</v>
       </c>
       <c r="U44" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V44" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W44" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X44" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y44" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="45">
@@ -7734,7 +7734,7 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M45" t="n">
-        <v>978.5393418843826</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N45" t="n">
         <v>1223.947919817482</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C46" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D46" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E46" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F46" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G46" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H46" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I46" t="n">
         <v>62.11912770411553</v>
@@ -7813,13 +7813,13 @@
         <v>308.0818086878572</v>
       </c>
       <c r="M46" t="n">
-        <v>494.3733870261212</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N46" t="n">
-        <v>677.5630210573304</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O46" t="n">
-        <v>845.8474307072216</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P46" t="n">
         <v>1094.779966106229</v>
@@ -7834,22 +7834,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T46" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U46" t="n">
-        <v>769.2584451161897</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V46" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W46" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X46" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y46" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
   </sheetData>
@@ -7985,19 +7985,19 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M2" t="n">
-        <v>149.7250515977273</v>
+        <v>214.0018366896148</v>
       </c>
       <c r="N2" t="n">
-        <v>682.2612020826953</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O2" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P2" t="n">
-        <v>318.467109017069</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q2" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R2" t="n">
         <v>102.5176150018526</v>
@@ -8064,13 +8064,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>636.0828644837485</v>
+        <v>210.8379091467845</v>
       </c>
       <c r="N3" t="n">
-        <v>274.5850301543761</v>
+        <v>604.1626973083978</v>
       </c>
       <c r="O3" t="n">
-        <v>614.4252180716981</v>
+        <v>611.4781433431201</v>
       </c>
       <c r="P3" t="n">
         <v>496.801919078302</v>
@@ -8213,19 +8213,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>256.1475973587117</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K5" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L5" t="n">
-        <v>651.5514946987026</v>
+        <v>197.037695336359</v>
       </c>
       <c r="M5" t="n">
         <v>149.7250515977273</v>
       </c>
       <c r="N5" t="n">
-        <v>682.2612020826953</v>
+        <v>667.9090757920153</v>
       </c>
       <c r="O5" t="n">
         <v>594.0482827698827</v>
@@ -8301,19 +8301,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>636.0828644837485</v>
+        <v>465.3882399439985</v>
       </c>
       <c r="N6" t="n">
-        <v>629.0678552886033</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O6" t="n">
-        <v>232.4345549924647</v>
+        <v>611.4781433431201</v>
       </c>
       <c r="P6" t="n">
         <v>87.08336481931465</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8450,25 +8450,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K8" t="n">
         <v>505.666843611017</v>
       </c>
       <c r="L8" t="n">
-        <v>651.5514946987026</v>
+        <v>616.3484143223238</v>
       </c>
       <c r="M8" t="n">
-        <v>701.2411122488187</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N8" t="n">
         <v>682.2612020826953</v>
       </c>
       <c r="O8" t="n">
-        <v>149.5638374240964</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P8" t="n">
-        <v>213.6604073397399</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q8" t="n">
         <v>331.2113854294513</v>
@@ -8529,19 +8529,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J9" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K9" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L9" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>674.5394322581658</v>
+        <v>340.274574506989</v>
       </c>
       <c r="N9" t="n">
-        <v>676.7842391234617</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O9" t="n">
         <v>614.4252180716981</v>
@@ -8766,19 +8766,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K12" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L12" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
-        <v>726.4998994499999</v>
+        <v>577.006990218999</v>
       </c>
       <c r="N12" t="n">
-        <v>301.8549375253374</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O12" t="n">
         <v>614.4252180716981</v>
@@ -8787,7 +8787,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q12" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -9003,7 +9003,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K15" t="n">
         <v>412.5657697396227</v>
@@ -9012,19 +9012,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N15" t="n">
-        <v>220.8844470939643</v>
+        <v>684.2495388215582</v>
       </c>
       <c r="O15" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P15" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q15" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>263.7907196684361</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K17" t="n">
         <v>505.666843611017</v>
@@ -9249,19 +9249,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N18" t="n">
-        <v>333.2595653118431</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O18" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P18" t="n">
-        <v>496.801919078302</v>
+        <v>347.309009847301</v>
       </c>
       <c r="Q18" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9486,19 +9486,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N21" t="n">
-        <v>85.37211285416666</v>
+        <v>569.9919810238538</v>
       </c>
       <c r="O21" t="n">
-        <v>228.1998931286865</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P21" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q21" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9714,28 +9714,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K24" t="n">
-        <v>412.5657697396227</v>
+        <v>377.3304183063261</v>
       </c>
       <c r="L24" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N24" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O24" t="n">
-        <v>199.9106794075977</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P24" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q24" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R24" t="n">
         <v>71.01380490566048</v>
@@ -9960,13 +9960,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N27" t="n">
-        <v>220.884447093964</v>
+        <v>333.2595653118427</v>
       </c>
       <c r="O27" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P27" t="n">
         <v>496.801919078302</v>
@@ -10197,13 +10197,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>92.38712204931191</v>
+        <v>340.274574506988</v>
       </c>
       <c r="N30" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O30" t="n">
-        <v>199.9106794075975</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P30" t="n">
         <v>496.801919078302</v>
@@ -10434,13 +10434,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>726.4998994499999</v>
+        <v>340.2745745069886</v>
       </c>
       <c r="N33" t="n">
-        <v>220.8844470939643</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O33" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P33" t="n">
         <v>496.801919078302</v>
@@ -10671,13 +10671,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>726.4998994499999</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N36" t="n">
-        <v>220.8844470939643</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O36" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P36" t="n">
         <v>496.801919078302</v>
@@ -11145,10 +11145,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>92.38712204931191</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N42" t="n">
-        <v>333.2595653118431</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O42" t="n">
         <v>614.4252180716981</v>
@@ -11382,10 +11382,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>92.38712204931191</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N45" t="n">
-        <v>333.2595653118431</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O45" t="n">
         <v>614.4252180716981</v>
@@ -23261,7 +23261,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>143.2898028423236</v>
+        <v>310.508405100767</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23270,13 +23270,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>66.44299906018318</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>65.87543334372791</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,13 +23309,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>150.1872840214456</v>
       </c>
       <c r="U11" t="n">
-        <v>182.1168898750155</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>267.6074288087849</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>296.2107322866635</v>
@@ -23419,7 +23419,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>82.99846957177849</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23461,28 +23461,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>51.58366707901689</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>162.2835489187163</v>
       </c>
       <c r="U13" t="n">
-        <v>211.5060914457862</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>133.3709596453647</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>160.6612066001148</v>
       </c>
       <c r="Y13" t="n">
-        <v>149.8026281767912</v>
+        <v>140.3201212563496</v>
       </c>
     </row>
     <row r="14">
@@ -23498,22 +23498,22 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>156.9503743610146</v>
+        <v>310.508405100767</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>174.8881998061473</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>337.9528155621449</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>65.87543334372788</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,19 +23546,19 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>150.1872840214456</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>267.6074288087849</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>314.4797666215418</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23659,10 +23659,10 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>82.9249116246576</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>84.67436304442487</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23698,25 +23698,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>51.58366707901689</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>129.7096105845442</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>162.2835489187163</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>192.2412393326521</v>
       </c>
       <c r="W16" t="n">
-        <v>166.4191979987449</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>160.6612066001148</v>
+        <v>62.02894751104593</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -24017,10 +24017,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>8.384404281969182e-13</v>
       </c>
       <c r="T20" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>808037.4704962182</v>
+        <v>807135.1490755779</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>808037.4704962182</v>
+        <v>807135.1490755779</v>
       </c>
     </row>
     <row r="4">
@@ -26317,16 +26317,16 @@
         <v>486896.8808520635</v>
       </c>
       <c r="D2" t="n">
-        <v>486896.8808520634</v>
+        <v>486896.8808520635</v>
       </c>
       <c r="E2" t="n">
+        <v>430269.3632458814</v>
+      </c>
+      <c r="F2" t="n">
         <v>430269.3632458815</v>
       </c>
-      <c r="F2" t="n">
-        <v>430269.3632458814</v>
-      </c>
       <c r="G2" t="n">
-        <v>486896.8808520628</v>
+        <v>486896.8808520627</v>
       </c>
       <c r="H2" t="n">
         <v>486896.8808520628</v>
@@ -26335,25 +26335,25 @@
         <v>486896.8808520627</v>
       </c>
       <c r="J2" t="n">
-        <v>486896.8808520632</v>
+        <v>486896.8808520634</v>
       </c>
       <c r="K2" t="n">
-        <v>486896.8808520631</v>
+        <v>486896.8808520633</v>
       </c>
       <c r="L2" t="n">
-        <v>486896.8808520637</v>
+        <v>486896.8808520627</v>
       </c>
       <c r="M2" t="n">
+        <v>486896.8808520629</v>
+      </c>
+      <c r="N2" t="n">
         <v>486896.8808520627</v>
-      </c>
-      <c r="N2" t="n">
-        <v>486896.8808520628</v>
       </c>
       <c r="O2" t="n">
         <v>486896.8808520627</v>
       </c>
       <c r="P2" t="n">
-        <v>486896.8808520628</v>
+        <v>486896.8808520625</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>182204.9482918557</v>
+        <v>173858.6570340553</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>14822.14031062208</v>
+        <v>22558.4295340133</v>
       </c>
       <c r="E3" t="n">
         <v>112122.5614740445</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>47425.32553668198</v>
+        <v>47425.32553668195</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>206802.1491945024</v>
+        <v>200285.8640399294</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>57301.47179728551</v>
+        <v>62456.24177539663</v>
       </c>
       <c r="M3" t="n">
-        <v>42200.82945962311</v>
+        <v>43252.52447081114</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>27767.69404277127</v>
+        <v>27767.69404277122</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>199815.2079190949</v>
+        <v>205625.0607746774</v>
       </c>
       <c r="C4" t="n">
-        <v>199815.2079190949</v>
+        <v>205625.0607746774</v>
       </c>
       <c r="D4" t="n">
         <v>188683.9728110359</v>
@@ -26442,16 +26442,16 @@
         <v>161306.7834561731</v>
       </c>
       <c r="K4" t="n">
-        <v>161306.7834561732</v>
+        <v>161306.7834561731</v>
       </c>
       <c r="L4" t="n">
-        <v>161051.2095556897</v>
+        <v>160917.814946635</v>
       </c>
       <c r="M4" t="n">
         <v>160556.29099179</v>
       </c>
       <c r="N4" t="n">
-        <v>160556.2909917899</v>
+        <v>160556.29099179</v>
       </c>
       <c r="O4" t="n">
         <v>160556.29099179</v>
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>66684.30114001373</v>
+        <v>65170.06753481725</v>
       </c>
       <c r="C5" t="n">
-        <v>66684.30114001373</v>
+        <v>65170.06753481725</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
@@ -26482,25 +26482,25 @@
         <v>53186.01969984052</v>
       </c>
       <c r="G5" t="n">
-        <v>58169.76931551967</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="H5" t="n">
         <v>58169.76931551966</v>
       </c>
       <c r="I5" t="n">
+        <v>58169.76931551967</v>
+      </c>
+      <c r="J5" t="n">
+        <v>63659.0452539195</v>
+      </c>
+      <c r="K5" t="n">
+        <v>63659.0452539195</v>
+      </c>
+      <c r="L5" t="n">
+        <v>60823.19813315425</v>
+      </c>
+      <c r="M5" t="n">
         <v>58169.76931551966</v>
-      </c>
-      <c r="J5" t="n">
-        <v>63659.04525391951</v>
-      </c>
-      <c r="K5" t="n">
-        <v>63659.04525391951</v>
-      </c>
-      <c r="L5" t="n">
-        <v>61795.73629173847</v>
-      </c>
-      <c r="M5" t="n">
-        <v>58169.76931551967</v>
       </c>
       <c r="N5" t="n">
         <v>58169.76931551966</v>
@@ -26519,19 +26519,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>38192.42350109917</v>
+        <v>42243.09550851352</v>
       </c>
       <c r="C6" t="n">
-        <v>220397.3717929549</v>
+        <v>216101.7525425688</v>
       </c>
       <c r="D6" t="n">
-        <v>213805.3104532323</v>
+        <v>206069.0212298411</v>
       </c>
       <c r="E6" t="n">
-        <v>152163.4075717886</v>
+        <v>151953.676025099</v>
       </c>
       <c r="F6" t="n">
-        <v>264285.9690458331</v>
+        <v>264076.2374991436</v>
       </c>
       <c r="G6" t="n">
         <v>220745.4950080711</v>
@@ -26540,28 +26540,28 @@
         <v>268170.8205447532</v>
       </c>
       <c r="I6" t="n">
+        <v>268170.8205447531</v>
+      </c>
+      <c r="J6" t="n">
+        <v>61645.18810204134</v>
+      </c>
+      <c r="K6" t="n">
+        <v>261931.0521419707</v>
+      </c>
+      <c r="L6" t="n">
+        <v>202699.6259968769</v>
+      </c>
+      <c r="M6" t="n">
+        <v>224918.2960739421</v>
+      </c>
+      <c r="N6" t="n">
         <v>268170.820544753</v>
       </c>
-      <c r="J6" t="n">
-        <v>55128.90294746814</v>
-      </c>
-      <c r="K6" t="n">
-        <v>261931.0521419704</v>
-      </c>
-      <c r="L6" t="n">
-        <v>206748.46320735</v>
-      </c>
-      <c r="M6" t="n">
-        <v>225969.9910851299</v>
-      </c>
-      <c r="N6" t="n">
-        <v>268170.8205447533</v>
-      </c>
       <c r="O6" t="n">
-        <v>240403.1265019817</v>
+        <v>240403.1265019818</v>
       </c>
       <c r="P6" t="n">
-        <v>268170.8205447531</v>
+        <v>268170.8205447529</v>
       </c>
     </row>
   </sheetData>
@@ -26695,7 +26695,7 @@
         <v>71.07831239473191</v>
       </c>
       <c r="F2" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="G2" t="n">
         <v>130.3599693155844</v>
@@ -26707,19 +26707,19 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="K2" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L2" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
       </c>
       <c r="N2" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="O2" t="n">
         <v>130.3599693155844</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344366</v>
+        <v>518.7905844542312</v>
       </c>
       <c r="C4" t="n">
-        <v>543.6957424344366</v>
+        <v>518.7905844542312</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26802,28 +26802,28 @@
         <v>776.4890963014441</v>
       </c>
       <c r="G4" t="n">
-        <v>776.4890963014442</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="H4" t="n">
         <v>776.4890963014441</v>
       </c>
       <c r="I4" t="n">
+        <v>776.4890963014442</v>
+      </c>
+      <c r="J4" t="n">
+        <v>917.060736844378</v>
+      </c>
+      <c r="K4" t="n">
+        <v>917.0607368443782</v>
+      </c>
+      <c r="L4" t="n">
+        <v>844.4391950293143</v>
+      </c>
+      <c r="M4" t="n">
         <v>776.4890963014441</v>
       </c>
-      <c r="J4" t="n">
-        <v>917.0607368443782</v>
-      </c>
-      <c r="K4" t="n">
-        <v>917.0607368443784</v>
-      </c>
-      <c r="L4" t="n">
-        <v>869.3443530095201</v>
-      </c>
-      <c r="M4" t="n">
-        <v>776.4890963014442</v>
-      </c>
       <c r="N4" t="n">
-        <v>776.4890963014442</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="O4" t="n">
         <v>776.4890963014442</v>
@@ -26917,10 +26917,10 @@
         <v>71.07831239473191</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>59.28165692085247</v>
+        <v>59.28165692085244</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>34.709617553464</v>
+        <v>34.70961755346401</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>71.62683974660689</v>
+        <v>78.07030221924579</v>
       </c>
       <c r="M2" t="n">
-        <v>24.02351201551349</v>
+        <v>17.5800495428746</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346408</v>
+        <v>34.70961755346403</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344366</v>
+        <v>518.7905844542312</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>47.71638383485845</v>
+        <v>72.62154181506389</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.2673829773707</v>
+        <v>659.362224997165</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>92.22171332407311</v>
+        <v>117.1268713042787</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27154,10 +27154,10 @@
         <v>71.07831239473191</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>59.28165692085247</v>
+        <v>59.28165692085244</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.709617553464</v>
+        <v>34.70961755346401</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>543.6957424344366</v>
+        <v>518.7905844542312</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>47.71638383485845</v>
+        <v>72.62154181506389</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27376,10 +27376,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>381.5867174954989</v>
@@ -27388,16 +27388,16 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>372.2515476334789</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,28 +27424,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>191.8732789281634</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27467,13 +27467,13 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>26.66263604343246</v>
       </c>
       <c r="G3" t="n">
         <v>118.8592197488542</v>
       </c>
       <c r="H3" t="n">
-        <v>17.42514118925622</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I3" t="n">
         <v>48.89338144820752</v>
@@ -27552,10 +27552,10 @@
         <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>108.6847868140829</v>
       </c>
       <c r="J4" t="n">
         <v>30.07448747215907</v>
@@ -27585,19 +27585,19 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>59.73332357054389</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
         <v>231.7395189948467</v>
@@ -27616,22 +27616,22 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
-        <v>166.9556429161096</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>371.2532790191503</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27661,19 +27661,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
         <v>367.2890446813954</v>
@@ -27746,7 +27746,7 @@
         <v>133.5813703291298</v>
       </c>
       <c r="T6" t="n">
-        <v>27.9184993862718</v>
+        <v>124.5704364758531</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27780,22 +27780,22 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
         <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
-        <v>280.4970980481341</v>
+        <v>257.5352008111475</v>
       </c>
       <c r="X7" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
-        <v>159.4874895828785</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="8">
@@ -27850,22 +27850,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>200.8705100802535</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>14.3487767719343</v>
       </c>
       <c r="H8" t="n">
         <v>320.8422199291742</v>
@@ -27898,28 +27898,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28014,22 +28014,22 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>23.65888910788243</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
         <v>30.07448747215907</v>
@@ -28065,16 +28065,16 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
-        <v>282.5844038405181</v>
+        <v>165.708020294746</v>
       </c>
       <c r="V10" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>220.8809405715231</v>
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="C14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="D14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="E14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="F14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="G14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="H14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="I14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="T14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="U14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="V14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="W14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="X14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="Y14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="C16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="D16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="E16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="F16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="G16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="H16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="I16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="J16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="K16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="L16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="M16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="N16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="O16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="P16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="R16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="S16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="T16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="U16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="V16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="W16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="X16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="Y16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
     </row>
     <row r="17">
@@ -28749,19 +28749,19 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>5.636002634529035</v>
+      </c>
+      <c r="P19" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="M19" t="n">
-        <v>5.636002634529177</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -28983,25 +28983,25 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="L22" t="n">
-        <v>5.63600263452912</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>5.636002634529005</v>
       </c>
       <c r="R22" t="n">
         <v>122.6619794737488</v>
@@ -29229,16 +29229,16 @@
         <v>0</v>
       </c>
       <c r="N25" t="n">
+        <v>5.636002634528808</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="O25" t="n">
-        <v>5.636002634529035</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>122.6619794737488</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="C26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="D26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="E26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="F26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="G26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="H26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="I26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="K26" t="n">
-        <v>30.27223765901209</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="L26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="M26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="N26" t="n">
-        <v>93.99127447431647</v>
+        <v>30.27223765901124</v>
       </c>
       <c r="O26" t="n">
-        <v>93.99127447431647</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Q26" t="n">
-        <v>93.99127447431647</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="S26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="T26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="U26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="V26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="W26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="X26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="C28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="D28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="E28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="F28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="G28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="H28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="I28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="J28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="K28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="L28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="M28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="N28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="O28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="P28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="R28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="S28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="T28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="U28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="V28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="W28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="X28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
     </row>
     <row r="29">
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>30.27223765901209</v>
       </c>
       <c r="L29" t="n">
-        <v>30.27223765901306</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q29" t="n">
-        <v>93.99127447431647</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="32">
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="C32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="D32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="E32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="F32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="G32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="H32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="I32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>43.49509683160181</v>
       </c>
       <c r="N32" t="n">
-        <v>86.27291196566466</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>106.3364573000709</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="T32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="U32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="V32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="W32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="X32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="Y32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
     </row>
     <row r="33">
@@ -29904,28 +29904,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="C34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="D34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="E34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="F34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="G34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="H34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="I34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="J34" t="n">
         <v>30.07448747215907</v>
@@ -29934,46 +29934,46 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>106.3364573000709</v>
+        <v>76.79385455031664</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="N34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="O34" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="Q34" t="n">
-        <v>94.97643844045338</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="S34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="T34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="U34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="V34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="W34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="X34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="Y34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
     </row>
     <row r="35">
@@ -30165,7 +30165,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J37" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -30180,16 +30180,16 @@
         <v>0</v>
       </c>
       <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>28.01250026485194</v>
+      </c>
+      <c r="R37" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="P37" t="n">
-        <v>5.636002634529063</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0</v>
-      </c>
-      <c r="R37" t="n">
-        <v>122.6619794737488</v>
       </c>
       <c r="S37" t="n">
         <v>130.3599693155844</v>
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="39">
@@ -30378,46 +30378,46 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J40" t="n">
-        <v>35.71049010668916</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>130.3599693155843</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>5.636002634529035</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
@@ -30429,25 +30429,25 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="41">
@@ -30502,7 +30502,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>6.252776074688882e-13</v>
       </c>
       <c r="R41" t="n">
         <v>37.61298457733328</v>
@@ -30645,22 +30645,22 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>5.636002634529035</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>5.636002634528481</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>122.6619794737488</v>
@@ -30885,16 +30885,16 @@
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>5.636002634528467</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>130.3599693155844</v>
+        <v>5.636002634529063</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
@@ -34705,19 +34705,19 @@
         <v>498.303324968211</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>64.27678509188753</v>
       </c>
       <c r="N2" t="n">
-        <v>533.1427107449111</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P2" t="n">
-        <v>168.1656617761438</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34784,13 +34784,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>543.6957424344366</v>
+        <v>118.4507870974726</v>
       </c>
       <c r="N3" t="n">
-        <v>189.2129173002095</v>
+        <v>518.7905844542312</v>
       </c>
       <c r="O3" t="n">
-        <v>521.7376591828091</v>
+        <v>518.7905844542312</v>
       </c>
       <c r="P3" t="n">
         <v>409.7185542589873</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>138.4677594163656</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L5" t="n">
-        <v>498.303324968211</v>
+        <v>43.78952560586728</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>533.1427107449111</v>
+        <v>518.7905844542312</v>
       </c>
       <c r="O5" t="n">
         <v>444.4844453457863</v>
@@ -35021,19 +35021,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>543.6957424344366</v>
+        <v>373.0011178946866</v>
       </c>
       <c r="N6" t="n">
-        <v>543.6957424344366</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>139.7469961035758</v>
+        <v>518.7905844542312</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,25 +35170,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>362.6084404317796</v>
       </c>
       <c r="L8" t="n">
-        <v>498.303324968211</v>
+        <v>463.1002445918322</v>
       </c>
       <c r="M8" t="n">
-        <v>551.5160606510915</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>533.1427107449111</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P8" t="n">
-        <v>63.35896009881473</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q8" t="n">
         <v>186.7126870110591</v>
@@ -35249,19 +35249,19 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
-        <v>582.1523102088539</v>
+        <v>247.8874524576771</v>
       </c>
       <c r="N9" t="n">
-        <v>591.4121262692951</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>521.7376591828091</v>
@@ -35486,19 +35486,19 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K12" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
-        <v>634.1127774006881</v>
+        <v>484.6198681696871</v>
       </c>
       <c r="N12" t="n">
-        <v>216.4828246711707</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>521.7376591828091</v>
@@ -35507,7 +35507,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q12" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>322.9688344062893</v>
@@ -35732,19 +35732,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>135.5123342397976</v>
+        <v>598.8774259673916</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P15" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q15" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>41.00382492257284</v>
+        <v>41.00382492257287</v>
       </c>
       <c r="K16" t="n">
         <v>153.7399700815419</v>
@@ -35823,7 +35823,7 @@
         <v>192.1653485326901</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.53507640488439</v>
+        <v>74.53507640488442</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>146.1108817260899</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K17" t="n">
         <v>362.6084404317796</v>
@@ -35969,19 +35969,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N18" t="n">
-        <v>247.8874524576764</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P18" t="n">
-        <v>409.7185542589873</v>
+        <v>260.2256450279863</v>
       </c>
       <c r="Q18" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36045,19 +36045,19 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L19" t="n">
-        <v>296.1454641376043</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M19" t="n">
-        <v>193.8093140873211</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N19" t="n">
         <v>185.0400343749588</v>
       </c>
       <c r="O19" t="n">
-        <v>164.3482495370789</v>
+        <v>169.9842521716079</v>
       </c>
       <c r="P19" t="n">
-        <v>121.0870361379582</v>
+        <v>251.4470054535425</v>
       </c>
       <c r="Q19" t="n">
         <v>3.456764010152483</v>
@@ -36206,19 +36206,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>484.6198681696871</v>
       </c>
       <c r="O21" t="n">
-        <v>135.5123342397976</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P21" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q21" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36279,10 +36279,10 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>213.0216270023944</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L22" t="n">
-        <v>171.4214974565491</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M22" t="n">
         <v>188.1733114527919</v>
@@ -36294,10 +36294,10 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P22" t="n">
-        <v>121.0870361379582</v>
+        <v>251.4470054535425</v>
       </c>
       <c r="Q22" t="n">
-        <v>3.456764010152483</v>
+        <v>9.092766644681488</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>322.9688344062893</v>
+        <v>287.7334829729927</v>
       </c>
       <c r="L24" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N24" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>107.2231205187088</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P24" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q24" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36525,16 +36525,16 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N25" t="n">
-        <v>315.4000036905431</v>
+        <v>190.6760370094876</v>
       </c>
       <c r="O25" t="n">
-        <v>169.9842521716079</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P25" t="n">
         <v>121.0870361379582</v>
       </c>
       <c r="Q25" t="n">
-        <v>3.456764010152483</v>
+        <v>133.8167333257369</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,10 +36592,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>146.110881726089</v>
+        <v>240.1021562004055</v>
       </c>
       <c r="K26" t="n">
-        <v>392.8806780907917</v>
+        <v>456.5997149060961</v>
       </c>
       <c r="L26" t="n">
         <v>592.2945994425274</v>
@@ -36604,19 +36604,19 @@
         <v>645.507335125408</v>
       </c>
       <c r="N26" t="n">
-        <v>627.1339852192276</v>
+        <v>563.4149484039224</v>
       </c>
       <c r="O26" t="n">
-        <v>538.4757198201028</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P26" t="n">
-        <v>351.7045375065877</v>
+        <v>445.6958119809042</v>
       </c>
       <c r="Q26" t="n">
-        <v>280.7039614853756</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R26" t="n">
-        <v>56.37828989698319</v>
+        <v>56.3782898969832</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36680,13 +36680,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>135.5123342397974</v>
+        <v>247.8874524576761</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P27" t="n">
         <v>409.7185542589873</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.9167870021574</v>
+        <v>63.91678700215741</v>
       </c>
       <c r="K28" t="n">
         <v>176.6529321611264</v>
@@ -36768,10 +36768,10 @@
         <v>258.3395240113953</v>
       </c>
       <c r="P28" t="n">
-        <v>215.0783106122746</v>
+        <v>215.0783106122747</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.44803848446895</v>
+        <v>97.44803848446897</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,10 +36832,10 @@
         <v>146.110881726089</v>
       </c>
       <c r="K29" t="n">
-        <v>362.6084404317796</v>
+        <v>392.8806780907917</v>
       </c>
       <c r="L29" t="n">
-        <v>528.575562627224</v>
+        <v>592.2945994425274</v>
       </c>
       <c r="M29" t="n">
         <v>645.507335125408</v>
@@ -36850,10 +36850,10 @@
         <v>445.6958119809042</v>
       </c>
       <c r="Q29" t="n">
-        <v>280.7039614853756</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R29" t="n">
-        <v>56.37828989698319</v>
+        <v>56.37828989698318</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36917,13 +36917,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>247.8874524576761</v>
       </c>
       <c r="N30" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>107.2231205187086</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P30" t="n">
         <v>409.7185542589873</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>63.9167870021574</v>
+        <v>63.91678700215738</v>
       </c>
       <c r="K31" t="n">
         <v>176.6529321611264</v>
@@ -37008,7 +37008,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q31" t="n">
-        <v>97.44803848446895</v>
+        <v>97.44803848446894</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>146.110881726089</v>
+        <v>258.8908014987988</v>
       </c>
       <c r="K32" t="n">
-        <v>362.6084404317796</v>
+        <v>475.3883602044895</v>
       </c>
       <c r="L32" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M32" t="n">
-        <v>551.5160606510915</v>
+        <v>595.0111574826933</v>
       </c>
       <c r="N32" t="n">
-        <v>619.4156227105758</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O32" t="n">
-        <v>550.8209026458571</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P32" t="n">
         <v>351.7045375065877</v>
       </c>
       <c r="Q32" t="n">
-        <v>293.04914431113</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R32" t="n">
-        <v>68.72347272273761</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37154,13 +37154,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>634.1127774006881</v>
+        <v>247.8874524576767</v>
       </c>
       <c r="N33" t="n">
-        <v>135.5123342397976</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P33" t="n">
         <v>409.7185542589873</v>
@@ -37230,22 +37230,22 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L34" t="n">
-        <v>272.1219521220909</v>
+        <v>242.5793493723366</v>
       </c>
       <c r="M34" t="n">
-        <v>188.1733114527919</v>
+        <v>300.9532312255018</v>
       </c>
       <c r="N34" t="n">
-        <v>291.3764916750297</v>
+        <v>297.8199541476686</v>
       </c>
       <c r="O34" t="n">
-        <v>270.6847068371497</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P34" t="n">
-        <v>227.4234934380291</v>
+        <v>233.866955910668</v>
       </c>
       <c r="Q34" t="n">
-        <v>98.43320245060586</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37391,13 +37391,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
-        <v>634.1127774006881</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N36" t="n">
-        <v>135.5123342397976</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P36" t="n">
         <v>409.7185542589873</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K37" t="n">
         <v>82.66165768680997</v>
@@ -37476,16 +37476,16 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O37" t="n">
-        <v>294.7082188526632</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P37" t="n">
-        <v>126.7230387724872</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q37" t="n">
-        <v>3.456764010152483</v>
+        <v>31.46926427500442</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>7.697989841835607</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>5.636002634530092</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L40" t="n">
-        <v>296.1454641376043</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M40" t="n">
         <v>188.1733114527919</v>
       </c>
       <c r="N40" t="n">
-        <v>185.0400343749588</v>
+        <v>190.6760370094878</v>
       </c>
       <c r="O40" t="n">
-        <v>164.3482495370789</v>
+        <v>294.7082188526632</v>
       </c>
       <c r="P40" t="n">
         <v>121.0870361379582</v>
@@ -37798,7 +37798,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q41" t="n">
-        <v>186.7126870110591</v>
+        <v>186.7126870110598</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37865,10 +37865,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N42" t="n">
-        <v>247.8874524576764</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>521.7376591828091</v>
@@ -37941,22 +37941,22 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L43" t="n">
-        <v>165.78549482202</v>
+        <v>171.421497456549</v>
       </c>
       <c r="M43" t="n">
         <v>188.1733114527919</v>
       </c>
       <c r="N43" t="n">
-        <v>185.0400343749588</v>
+        <v>315.4000036905431</v>
       </c>
       <c r="O43" t="n">
         <v>164.3482495370789</v>
       </c>
       <c r="P43" t="n">
-        <v>126.7230387724866</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q43" t="n">
-        <v>133.8167333257369</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38102,10 +38102,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N45" t="n">
-        <v>247.8874524576764</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>521.7376591828091</v>
@@ -38181,16 +38181,16 @@
         <v>165.78549482202</v>
       </c>
       <c r="M46" t="n">
-        <v>188.1733114527919</v>
+        <v>318.5332807683764</v>
       </c>
       <c r="N46" t="n">
         <v>185.0400343749588</v>
       </c>
       <c r="O46" t="n">
-        <v>169.9842521716073</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P46" t="n">
-        <v>251.4470054535426</v>
+        <v>126.7230387724872</v>
       </c>
       <c r="Q46" t="n">
         <v>3.456764010152483</v>
